--- a/matlab/WIR_Catchment/WIR Supporting Data.xlsx
+++ b/matlab/WIR_Catchment/WIR Supporting Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SCERM\matlab\WIR_Catchment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08D9982-1C7B-4139-AB07-AA5FEA1BEDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F575104B-F857-418D-9F53-8388CF8136F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_Information" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1368">
   <si>
     <t>SITE_ID</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>WQ_DIAG_TOT_TN</t>
   </si>
   <si>
-    <t>TRC_SS1</t>
-  </si>
-  <si>
     <t>TEMP</t>
   </si>
   <si>
@@ -4141,6 +4138,9 @@
   </si>
   <si>
     <t>Turbidity (NTU) | NTU</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TSS</t>
   </si>
 </sst>
 </file>
@@ -4705,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1432"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4754,10 +4754,10 @@
         <v>6160712</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>1349</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>1350</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="shared" ref="E2:E11" si="0">CONCATENATE("s",A2)</f>
@@ -4782,10 +4782,10 @@
         <v>6161013</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E3" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4810,10 +4810,10 @@
         <v>6161989</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4838,10 +4838,10 @@
         <v>6162924</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4866,10 +4866,10 @@
         <v>6162925</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4894,10 +4894,10 @@
         <v>6163143</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4922,10 +4922,10 @@
         <v>6163625</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4950,10 +4950,10 @@
         <v>6163713</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4978,10 +4978,10 @@
         <v>6164314</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5006,10 +5006,10 @@
         <v>6164462</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5034,10 +5034,10 @@
         <v>6142546</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>580</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>581</v>
       </c>
       <c r="E12" s="11" t="str">
         <f>CONCATENATE("s",A12)</f>
@@ -5062,10 +5062,10 @@
         <v>6160118</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" ref="E13:E76" si="2">CONCATENATE("s",A13)</f>
@@ -5090,10 +5090,10 @@
         <v>6160119</v>
       </c>
       <c r="C14" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>583</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>584</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5118,10 +5118,10 @@
         <v>6160130</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>585</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>586</v>
       </c>
       <c r="E15" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5146,10 +5146,10 @@
         <v>6160195</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>588</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5174,10 +5174,10 @@
         <v>6160198</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="E17" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5202,10 +5202,10 @@
         <v>6160199</v>
       </c>
       <c r="C18" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>591</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>592</v>
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5230,10 +5230,10 @@
         <v>6160360</v>
       </c>
       <c r="C19" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>593</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>594</v>
       </c>
       <c r="E19" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5258,10 +5258,10 @@
         <v>6160664</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>595</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>596</v>
       </c>
       <c r="E20" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5286,10 +5286,10 @@
         <v>6160690</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>597</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>598</v>
       </c>
       <c r="E21" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5314,10 +5314,10 @@
         <v>6160693</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>599</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>600</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5342,10 +5342,10 @@
         <v>6160720</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>601</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>602</v>
       </c>
       <c r="E23" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5370,10 +5370,10 @@
         <v>6160732</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>603</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>604</v>
       </c>
       <c r="E24" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5398,10 +5398,10 @@
         <v>6160734</v>
       </c>
       <c r="C25" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>605</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>606</v>
       </c>
       <c r="E25" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5426,10 +5426,10 @@
         <v>6160735</v>
       </c>
       <c r="C26" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>607</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>608</v>
       </c>
       <c r="E26" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5454,10 +5454,10 @@
         <v>6160736</v>
       </c>
       <c r="C27" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>609</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>610</v>
       </c>
       <c r="E27" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5482,10 +5482,10 @@
         <v>6160737</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>611</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>612</v>
       </c>
       <c r="E28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5510,10 +5510,10 @@
         <v>6160738</v>
       </c>
       <c r="C29" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>613</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>614</v>
       </c>
       <c r="E29" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5538,10 +5538,10 @@
         <v>6160739</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>615</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>616</v>
       </c>
       <c r="E30" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5566,10 +5566,10 @@
         <v>6160740</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>617</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>618</v>
       </c>
       <c r="E31" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5594,10 +5594,10 @@
         <v>6160746</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>619</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>620</v>
       </c>
       <c r="E32" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5622,10 +5622,10 @@
         <v>6160747</v>
       </c>
       <c r="C33" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>621</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>622</v>
       </c>
       <c r="E33" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5650,10 +5650,10 @@
         <v>6160750</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>623</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>624</v>
       </c>
       <c r="E34" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5678,10 +5678,10 @@
         <v>6160752</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>625</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>626</v>
       </c>
       <c r="E35" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5706,10 +5706,10 @@
         <v>6160753</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>627</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="E36" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5734,10 +5734,10 @@
         <v>6160754</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="D37" s="26" t="s">
         <v>629</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>630</v>
       </c>
       <c r="E37" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5762,10 +5762,10 @@
         <v>6160755</v>
       </c>
       <c r="C38" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>631</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>632</v>
       </c>
       <c r="E38" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5790,10 +5790,10 @@
         <v>6160756</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>633</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>634</v>
       </c>
       <c r="E39" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5818,10 +5818,10 @@
         <v>6160758</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>635</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>636</v>
       </c>
       <c r="E40" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5846,10 +5846,10 @@
         <v>6160761</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>637</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="E41" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5874,10 +5874,10 @@
         <v>6160762</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>639</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>640</v>
       </c>
       <c r="E42" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5902,10 +5902,10 @@
         <v>6160763</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>641</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>642</v>
       </c>
       <c r="E43" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5930,10 +5930,10 @@
         <v>6160930</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>644</v>
       </c>
       <c r="E44" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5958,10 +5958,10 @@
         <v>6160957</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>645</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>646</v>
       </c>
       <c r="E45" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5986,10 +5986,10 @@
         <v>6161086</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>647</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>648</v>
       </c>
       <c r="E46" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6014,10 +6014,10 @@
         <v>6161310</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="E47" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6042,10 +6042,10 @@
         <v>6161685</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>651</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>652</v>
       </c>
       <c r="E48" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6070,10 +6070,10 @@
         <v>6161686</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>653</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>654</v>
       </c>
       <c r="E49" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6098,10 +6098,10 @@
         <v>6161692</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>655</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>656</v>
       </c>
       <c r="E50" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6126,10 +6126,10 @@
         <v>6161696</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>657</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>658</v>
       </c>
       <c r="E51" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6154,10 +6154,10 @@
         <v>6161752</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>659</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>660</v>
       </c>
       <c r="E52" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6182,10 +6182,10 @@
         <v>6161836</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E53" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6210,10 +6210,10 @@
         <v>6161854</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>662</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>663</v>
       </c>
       <c r="E54" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6238,10 +6238,10 @@
         <v>6161879</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E55" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6266,10 +6266,10 @@
         <v>6162178</v>
       </c>
       <c r="C56" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>665</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>666</v>
       </c>
       <c r="E56" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6294,10 +6294,10 @@
         <v>6162179</v>
       </c>
       <c r="C57" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="D57" s="26" t="s">
         <v>667</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>668</v>
       </c>
       <c r="E57" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6322,10 +6322,10 @@
         <v>6162180</v>
       </c>
       <c r="C58" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>669</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>670</v>
       </c>
       <c r="E58" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6350,10 +6350,10 @@
         <v>6162181</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>671</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>672</v>
       </c>
       <c r="E59" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6378,10 +6378,10 @@
         <v>6162187</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>673</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>674</v>
       </c>
       <c r="E60" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6406,10 +6406,10 @@
         <v>6162200</v>
       </c>
       <c r="C61" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>675</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>676</v>
       </c>
       <c r="E61" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6434,10 +6434,10 @@
         <v>6162201</v>
       </c>
       <c r="C62" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>677</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>678</v>
       </c>
       <c r="E62" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6462,10 +6462,10 @@
         <v>6162202</v>
       </c>
       <c r="C63" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>679</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>680</v>
       </c>
       <c r="E63" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6490,10 +6490,10 @@
         <v>6162203</v>
       </c>
       <c r="C64" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>681</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>682</v>
       </c>
       <c r="E64" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6518,10 +6518,10 @@
         <v>6162204</v>
       </c>
       <c r="C65" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>683</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>684</v>
       </c>
       <c r="E65" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6546,10 +6546,10 @@
         <v>6162278</v>
       </c>
       <c r="C66" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>685</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>686</v>
       </c>
       <c r="E66" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6574,10 +6574,10 @@
         <v>6162300</v>
       </c>
       <c r="C67" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>687</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>688</v>
       </c>
       <c r="E67" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6602,10 +6602,10 @@
         <v>6162310</v>
       </c>
       <c r="C68" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>689</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>690</v>
       </c>
       <c r="E68" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6630,10 +6630,10 @@
         <v>6162311</v>
       </c>
       <c r="C69" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="D69" s="26" t="s">
         <v>691</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>692</v>
       </c>
       <c r="E69" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6658,10 +6658,10 @@
         <v>6162312</v>
       </c>
       <c r="C70" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="D70" s="26" t="s">
         <v>693</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>694</v>
       </c>
       <c r="E70" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6686,10 +6686,10 @@
         <v>6162313</v>
       </c>
       <c r="C71" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>695</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>696</v>
       </c>
       <c r="E71" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6714,10 +6714,10 @@
         <v>6162318</v>
       </c>
       <c r="C72" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>698</v>
       </c>
       <c r="E72" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6742,10 +6742,10 @@
         <v>6162319</v>
       </c>
       <c r="C73" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D73" s="26" t="s">
         <v>699</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>700</v>
       </c>
       <c r="E73" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6770,10 +6770,10 @@
         <v>6162370</v>
       </c>
       <c r="C74" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>701</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>702</v>
       </c>
       <c r="E74" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6798,10 +6798,10 @@
         <v>6162373</v>
       </c>
       <c r="C75" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="D75" s="26" t="s">
         <v>703</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>704</v>
       </c>
       <c r="E75" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6826,10 +6826,10 @@
         <v>6162374</v>
       </c>
       <c r="C76" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="D76" s="26" t="s">
         <v>705</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>706</v>
       </c>
       <c r="E76" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6854,10 +6854,10 @@
         <v>6162375</v>
       </c>
       <c r="C77" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="D77" s="26" t="s">
         <v>707</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>708</v>
       </c>
       <c r="E77" s="11" t="str">
         <f t="shared" ref="E77:E140" si="4">CONCATENATE("s",A77)</f>
@@ -6882,10 +6882,10 @@
         <v>6162376</v>
       </c>
       <c r="C78" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="D78" s="26" t="s">
         <v>709</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>710</v>
       </c>
       <c r="E78" s="11" t="str">
         <f t="shared" si="4"/>
@@ -6910,10 +6910,10 @@
         <v>6162377</v>
       </c>
       <c r="C79" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>711</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>712</v>
       </c>
       <c r="E79" s="11" t="str">
         <f t="shared" si="4"/>
@@ -6938,10 +6938,10 @@
         <v>6162378</v>
       </c>
       <c r="C80" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="D80" s="26" t="s">
         <v>713</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>714</v>
       </c>
       <c r="E80" s="11" t="str">
         <f t="shared" si="4"/>
@@ -6966,10 +6966,10 @@
         <v>6162379</v>
       </c>
       <c r="C81" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>715</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>716</v>
       </c>
       <c r="E81" s="11" t="str">
         <f t="shared" si="4"/>
@@ -6994,10 +6994,10 @@
         <v>6162381</v>
       </c>
       <c r="C82" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>717</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>718</v>
       </c>
       <c r="E82" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7022,10 +7022,10 @@
         <v>6162382</v>
       </c>
       <c r="C83" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>719</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>720</v>
       </c>
       <c r="E83" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7050,10 +7050,10 @@
         <v>6162383</v>
       </c>
       <c r="C84" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>722</v>
       </c>
       <c r="E84" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7078,10 +7078,10 @@
         <v>6162384</v>
       </c>
       <c r="C85" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>723</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>724</v>
       </c>
       <c r="E85" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7106,10 +7106,10 @@
         <v>6162394</v>
       </c>
       <c r="C86" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>725</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>726</v>
       </c>
       <c r="E86" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7134,10 +7134,10 @@
         <v>6162395</v>
       </c>
       <c r="C87" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>727</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>728</v>
       </c>
       <c r="E87" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7162,10 +7162,10 @@
         <v>6162396</v>
       </c>
       <c r="C88" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="D88" s="26" t="s">
         <v>729</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>730</v>
       </c>
       <c r="E88" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7190,10 +7190,10 @@
         <v>6162397</v>
       </c>
       <c r="C89" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>731</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>732</v>
       </c>
       <c r="E89" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7218,10 +7218,10 @@
         <v>6162398</v>
       </c>
       <c r="C90" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D90" s="26" t="s">
         <v>733</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>734</v>
       </c>
       <c r="E90" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7246,10 +7246,10 @@
         <v>6162399</v>
       </c>
       <c r="C91" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="D91" s="26" t="s">
         <v>735</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>736</v>
       </c>
       <c r="E91" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7274,10 +7274,10 @@
         <v>6162400</v>
       </c>
       <c r="C92" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="D92" s="26" t="s">
         <v>737</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>738</v>
       </c>
       <c r="E92" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7302,10 +7302,10 @@
         <v>6162401</v>
       </c>
       <c r="C93" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="D93" s="26" t="s">
         <v>739</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>740</v>
       </c>
       <c r="E93" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7330,10 +7330,10 @@
         <v>6162402</v>
       </c>
       <c r="C94" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="D94" s="26" t="s">
         <v>741</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>742</v>
       </c>
       <c r="E94" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7358,10 +7358,10 @@
         <v>6162403</v>
       </c>
       <c r="C95" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>743</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>744</v>
       </c>
       <c r="E95" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7386,10 +7386,10 @@
         <v>6162404</v>
       </c>
       <c r="C96" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>745</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>746</v>
       </c>
       <c r="E96" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7414,10 +7414,10 @@
         <v>6162409</v>
       </c>
       <c r="C97" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="D97" s="26" t="s">
         <v>747</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>748</v>
       </c>
       <c r="E97" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7442,10 +7442,10 @@
         <v>6162410</v>
       </c>
       <c r="C98" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>749</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>750</v>
       </c>
       <c r="E98" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7470,10 +7470,10 @@
         <v>6162411</v>
       </c>
       <c r="C99" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>751</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>752</v>
       </c>
       <c r="E99" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7498,10 +7498,10 @@
         <v>6162412</v>
       </c>
       <c r="C100" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>753</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>754</v>
       </c>
       <c r="E100" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7526,10 +7526,10 @@
         <v>6162413</v>
       </c>
       <c r="C101" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D101" s="26" t="s">
         <v>755</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>756</v>
       </c>
       <c r="E101" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7554,10 +7554,10 @@
         <v>6162414</v>
       </c>
       <c r="C102" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="D102" s="26" t="s">
         <v>757</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>758</v>
       </c>
       <c r="E102" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7582,10 +7582,10 @@
         <v>6162415</v>
       </c>
       <c r="C103" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>759</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>760</v>
       </c>
       <c r="E103" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7610,10 +7610,10 @@
         <v>6162416</v>
       </c>
       <c r="C104" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="D104" s="26" t="s">
         <v>761</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>762</v>
       </c>
       <c r="E104" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7638,10 +7638,10 @@
         <v>6162417</v>
       </c>
       <c r="C105" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>763</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>764</v>
       </c>
       <c r="E105" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7666,10 +7666,10 @@
         <v>6162418</v>
       </c>
       <c r="C106" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="D106" s="26" t="s">
         <v>765</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>766</v>
       </c>
       <c r="E106" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7694,10 +7694,10 @@
         <v>6162419</v>
       </c>
       <c r="C107" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>767</v>
-      </c>
-      <c r="D107" s="26" t="s">
-        <v>768</v>
       </c>
       <c r="E107" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7722,10 +7722,10 @@
         <v>6162420</v>
       </c>
       <c r="C108" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="D108" s="26" t="s">
         <v>769</v>
-      </c>
-      <c r="D108" s="26" t="s">
-        <v>770</v>
       </c>
       <c r="E108" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7750,10 +7750,10 @@
         <v>6162421</v>
       </c>
       <c r="C109" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D109" s="26" t="s">
         <v>771</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>772</v>
       </c>
       <c r="E109" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7778,10 +7778,10 @@
         <v>6162422</v>
       </c>
       <c r="C110" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>773</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>774</v>
       </c>
       <c r="E110" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7806,10 +7806,10 @@
         <v>6162423</v>
       </c>
       <c r="C111" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>775</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>776</v>
       </c>
       <c r="E111" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7834,10 +7834,10 @@
         <v>6162424</v>
       </c>
       <c r="C112" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>777</v>
-      </c>
-      <c r="D112" s="26" t="s">
-        <v>778</v>
       </c>
       <c r="E112" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7862,10 +7862,10 @@
         <v>6162425</v>
       </c>
       <c r="C113" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="D113" s="26" t="s">
         <v>779</v>
-      </c>
-      <c r="D113" s="26" t="s">
-        <v>780</v>
       </c>
       <c r="E113" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7890,10 +7890,10 @@
         <v>6162426</v>
       </c>
       <c r="C114" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="D114" s="26" t="s">
         <v>781</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>782</v>
       </c>
       <c r="E114" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7918,10 +7918,10 @@
         <v>6162427</v>
       </c>
       <c r="C115" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="D115" s="26" t="s">
         <v>783</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>784</v>
       </c>
       <c r="E115" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7946,10 +7946,10 @@
         <v>6162429</v>
       </c>
       <c r="C116" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="D116" s="26" t="s">
         <v>785</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>786</v>
       </c>
       <c r="E116" s="11" t="str">
         <f t="shared" si="4"/>
@@ -7974,10 +7974,10 @@
         <v>6162430</v>
       </c>
       <c r="C117" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="D117" s="26" t="s">
         <v>787</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>788</v>
       </c>
       <c r="E117" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8002,10 +8002,10 @@
         <v>6162431</v>
       </c>
       <c r="C118" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="D118" s="26" t="s">
         <v>789</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>790</v>
       </c>
       <c r="E118" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8030,10 +8030,10 @@
         <v>6162432</v>
       </c>
       <c r="C119" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="D119" s="26" t="s">
         <v>791</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>792</v>
       </c>
       <c r="E119" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8058,10 +8058,10 @@
         <v>6162481</v>
       </c>
       <c r="C120" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D120" s="26" t="s">
         <v>793</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>794</v>
       </c>
       <c r="E120" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8086,10 +8086,10 @@
         <v>6162511</v>
       </c>
       <c r="C121" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="D121" s="26" t="s">
         <v>795</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>796</v>
       </c>
       <c r="E121" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8114,10 +8114,10 @@
         <v>6162518</v>
       </c>
       <c r="C122" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="D122" s="26" t="s">
         <v>797</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>798</v>
       </c>
       <c r="E122" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8142,10 +8142,10 @@
         <v>6162519</v>
       </c>
       <c r="C123" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="D123" s="26" t="s">
         <v>799</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>800</v>
       </c>
       <c r="E123" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8170,10 +8170,10 @@
         <v>6162520</v>
       </c>
       <c r="C124" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="D124" s="26" t="s">
         <v>801</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>802</v>
       </c>
       <c r="E124" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8198,10 +8198,10 @@
         <v>6162556</v>
       </c>
       <c r="C125" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="D125" s="26" t="s">
         <v>803</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>804</v>
       </c>
       <c r="E125" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8226,10 +8226,10 @@
         <v>6162557</v>
       </c>
       <c r="C126" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="D126" s="26" t="s">
         <v>805</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>806</v>
       </c>
       <c r="E126" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8254,10 +8254,10 @@
         <v>6162558</v>
       </c>
       <c r="C127" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="D127" s="26" t="s">
         <v>807</v>
-      </c>
-      <c r="D127" s="26" t="s">
-        <v>808</v>
       </c>
       <c r="E127" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8282,10 +8282,10 @@
         <v>6162563</v>
       </c>
       <c r="C128" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="D128" s="26" t="s">
         <v>809</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>810</v>
       </c>
       <c r="E128" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8310,10 +8310,10 @@
         <v>6162628</v>
       </c>
       <c r="C129" s="26" t="s">
+        <v>810</v>
+      </c>
+      <c r="D129" s="26" t="s">
         <v>811</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>812</v>
       </c>
       <c r="E129" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8338,10 +8338,10 @@
         <v>6162629</v>
       </c>
       <c r="C130" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="D130" s="26" t="s">
         <v>813</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>814</v>
       </c>
       <c r="E130" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8366,10 +8366,10 @@
         <v>6162630</v>
       </c>
       <c r="C131" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="D131" s="26" t="s">
         <v>815</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>816</v>
       </c>
       <c r="E131" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8394,10 +8394,10 @@
         <v>6162796</v>
       </c>
       <c r="C132" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>817</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>818</v>
       </c>
       <c r="E132" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8422,10 +8422,10 @@
         <v>6162797</v>
       </c>
       <c r="C133" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>819</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>820</v>
       </c>
       <c r="E133" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8450,10 +8450,10 @@
         <v>6162925</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E134" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8478,10 +8478,10 @@
         <v>6162962</v>
       </c>
       <c r="C135" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="D135" s="26" t="s">
         <v>822</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>823</v>
       </c>
       <c r="E135" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8506,10 +8506,10 @@
         <v>6162964</v>
       </c>
       <c r="C136" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="D136" s="26" t="s">
         <v>824</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>825</v>
       </c>
       <c r="E136" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8534,10 +8534,10 @@
         <v>6162972</v>
       </c>
       <c r="C137" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="D137" s="26" t="s">
         <v>826</v>
-      </c>
-      <c r="D137" s="26" t="s">
-        <v>827</v>
       </c>
       <c r="E137" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8562,10 +8562,10 @@
         <v>6162979</v>
       </c>
       <c r="C138" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="D138" s="26" t="s">
         <v>828</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>829</v>
       </c>
       <c r="E138" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8590,10 +8590,10 @@
         <v>6162980</v>
       </c>
       <c r="C139" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="D139" s="26" t="s">
         <v>830</v>
-      </c>
-      <c r="D139" s="26" t="s">
-        <v>831</v>
       </c>
       <c r="E139" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8618,10 +8618,10 @@
         <v>6162981</v>
       </c>
       <c r="C140" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="D140" s="26" t="s">
         <v>832</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>833</v>
       </c>
       <c r="E140" s="11" t="str">
         <f t="shared" si="4"/>
@@ -8646,10 +8646,10 @@
         <v>6162982</v>
       </c>
       <c r="C141" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="D141" s="26" t="s">
         <v>834</v>
-      </c>
-      <c r="D141" s="26" t="s">
-        <v>835</v>
       </c>
       <c r="E141" s="11" t="str">
         <f t="shared" ref="E141:E204" si="6">CONCATENATE("s",A141)</f>
@@ -8674,10 +8674,10 @@
         <v>6162991</v>
       </c>
       <c r="C142" s="26" t="s">
+        <v>835</v>
+      </c>
+      <c r="D142" s="26" t="s">
         <v>836</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>837</v>
       </c>
       <c r="E142" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8702,10 +8702,10 @@
         <v>6162992</v>
       </c>
       <c r="C143" s="26" t="s">
+        <v>837</v>
+      </c>
+      <c r="D143" s="26" t="s">
         <v>838</v>
-      </c>
-      <c r="D143" s="26" t="s">
-        <v>839</v>
       </c>
       <c r="E143" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8730,10 +8730,10 @@
         <v>6162993</v>
       </c>
       <c r="C144" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="D144" s="26" t="s">
         <v>840</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>841</v>
       </c>
       <c r="E144" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8758,10 +8758,10 @@
         <v>6162994</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E145" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8786,10 +8786,10 @@
         <v>6162995</v>
       </c>
       <c r="C146" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>843</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>844</v>
       </c>
       <c r="E146" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8814,10 +8814,10 @@
         <v>6163105</v>
       </c>
       <c r="C147" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="D147" s="26" t="s">
         <v>845</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>846</v>
       </c>
       <c r="E147" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8842,10 +8842,10 @@
         <v>6163119</v>
       </c>
       <c r="C148" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="D148" s="26" t="s">
         <v>847</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>848</v>
       </c>
       <c r="E148" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8870,10 +8870,10 @@
         <v>6163124</v>
       </c>
       <c r="C149" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="D149" s="26" t="s">
         <v>849</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>850</v>
       </c>
       <c r="E149" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8898,10 +8898,10 @@
         <v>6163154</v>
       </c>
       <c r="C150" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D150" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="E150" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8926,10 +8926,10 @@
         <v>6163156</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E151" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8954,10 +8954,10 @@
         <v>6163167</v>
       </c>
       <c r="C152" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="D152" s="26" t="s">
         <v>852</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>853</v>
       </c>
       <c r="E152" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8982,10 +8982,10 @@
         <v>6163176</v>
       </c>
       <c r="C153" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="D153" s="26" t="s">
         <v>854</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>855</v>
       </c>
       <c r="E153" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9010,10 +9010,10 @@
         <v>6163202</v>
       </c>
       <c r="C154" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="D154" s="26" t="s">
         <v>856</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>857</v>
       </c>
       <c r="E154" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9038,10 +9038,10 @@
         <v>6163301</v>
       </c>
       <c r="C155" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="D155" s="26" t="s">
         <v>858</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>859</v>
       </c>
       <c r="E155" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9066,10 +9066,10 @@
         <v>6163302</v>
       </c>
       <c r="C156" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="D156" s="26" t="s">
         <v>860</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>861</v>
       </c>
       <c r="E156" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9094,10 +9094,10 @@
         <v>6163303</v>
       </c>
       <c r="C157" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="D157" s="26" t="s">
         <v>862</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>863</v>
       </c>
       <c r="E157" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9122,10 +9122,10 @@
         <v>6163304</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E158" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9150,10 +9150,10 @@
         <v>6163305</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E159" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9178,10 +9178,10 @@
         <v>6163307</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E160" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9206,10 +9206,10 @@
         <v>6163309</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E161" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9234,10 +9234,10 @@
         <v>6163352</v>
       </c>
       <c r="C162" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="D162" s="26" t="s">
         <v>868</v>
-      </c>
-      <c r="D162" s="26" t="s">
-        <v>869</v>
       </c>
       <c r="E162" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9262,10 +9262,10 @@
         <v>6163353</v>
       </c>
       <c r="C163" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="D163" s="26" t="s">
         <v>870</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>871</v>
       </c>
       <c r="E163" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9290,10 +9290,10 @@
         <v>6163354</v>
       </c>
       <c r="C164" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>870</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>871</v>
       </c>
       <c r="E164" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9318,10 +9318,10 @@
         <v>6163355</v>
       </c>
       <c r="C165" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="D165" s="26" t="s">
         <v>872</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>873</v>
       </c>
       <c r="E165" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9346,10 +9346,10 @@
         <v>6163356</v>
       </c>
       <c r="C166" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="D166" s="26" t="s">
         <v>874</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>875</v>
       </c>
       <c r="E166" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9374,10 +9374,10 @@
         <v>6163358</v>
       </c>
       <c r="C167" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="D167" s="26" t="s">
         <v>876</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>877</v>
       </c>
       <c r="E167" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9402,10 +9402,10 @@
         <v>6163359</v>
       </c>
       <c r="C168" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="D168" s="26" t="s">
         <v>878</v>
-      </c>
-      <c r="D168" s="26" t="s">
-        <v>879</v>
       </c>
       <c r="E168" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9430,10 +9430,10 @@
         <v>6163360</v>
       </c>
       <c r="C169" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="D169" s="26" t="s">
         <v>880</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>881</v>
       </c>
       <c r="E169" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9458,10 +9458,10 @@
         <v>6163361</v>
       </c>
       <c r="C170" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="D170" s="26" t="s">
         <v>882</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>883</v>
       </c>
       <c r="E170" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9486,10 +9486,10 @@
         <v>6163362</v>
       </c>
       <c r="C171" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="D171" s="26" t="s">
         <v>884</v>
-      </c>
-      <c r="D171" s="26" t="s">
-        <v>885</v>
       </c>
       <c r="E171" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9514,10 +9514,10 @@
         <v>6163363</v>
       </c>
       <c r="C172" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="D172" s="26" t="s">
         <v>886</v>
-      </c>
-      <c r="D172" s="26" t="s">
-        <v>887</v>
       </c>
       <c r="E172" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9542,10 +9542,10 @@
         <v>6163365</v>
       </c>
       <c r="C173" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="D173" s="26" t="s">
         <v>888</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>889</v>
       </c>
       <c r="E173" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9570,10 +9570,10 @@
         <v>6163366</v>
       </c>
       <c r="C174" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="D174" s="26" t="s">
         <v>890</v>
-      </c>
-      <c r="D174" s="26" t="s">
-        <v>891</v>
       </c>
       <c r="E174" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9598,10 +9598,10 @@
         <v>6163367</v>
       </c>
       <c r="C175" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="D175" s="26" t="s">
         <v>892</v>
-      </c>
-      <c r="D175" s="26" t="s">
-        <v>893</v>
       </c>
       <c r="E175" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9626,10 +9626,10 @@
         <v>6163414</v>
       </c>
       <c r="C176" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="D176" s="26" t="s">
         <v>894</v>
-      </c>
-      <c r="D176" s="26" t="s">
-        <v>895</v>
       </c>
       <c r="E176" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9654,10 +9654,10 @@
         <v>6163441</v>
       </c>
       <c r="C177" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="D177" s="26" t="s">
         <v>896</v>
-      </c>
-      <c r="D177" s="26" t="s">
-        <v>897</v>
       </c>
       <c r="E177" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9682,10 +9682,10 @@
         <v>6163442</v>
       </c>
       <c r="C178" s="26" t="s">
+        <v>897</v>
+      </c>
+      <c r="D178" s="26" t="s">
         <v>898</v>
-      </c>
-      <c r="D178" s="26" t="s">
-        <v>899</v>
       </c>
       <c r="E178" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9710,10 +9710,10 @@
         <v>6163447</v>
       </c>
       <c r="C179" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="D179" s="26" t="s">
         <v>900</v>
-      </c>
-      <c r="D179" s="26" t="s">
-        <v>901</v>
       </c>
       <c r="E179" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9738,10 +9738,10 @@
         <v>6163455</v>
       </c>
       <c r="C180" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="D180" s="26" t="s">
         <v>902</v>
-      </c>
-      <c r="D180" s="26" t="s">
-        <v>903</v>
       </c>
       <c r="E180" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9766,10 +9766,10 @@
         <v>6163500</v>
       </c>
       <c r="C181" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="D181" s="26" t="s">
         <v>904</v>
-      </c>
-      <c r="D181" s="26" t="s">
-        <v>905</v>
       </c>
       <c r="E181" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9794,10 +9794,10 @@
         <v>6163796</v>
       </c>
       <c r="C182" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="D182" s="26" t="s">
         <v>906</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>907</v>
       </c>
       <c r="E182" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9822,10 +9822,10 @@
         <v>6163798</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E183" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9850,10 +9850,10 @@
         <v>6163800</v>
       </c>
       <c r="C184" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="D184" s="26" t="s">
         <v>909</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>910</v>
       </c>
       <c r="E184" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9878,10 +9878,10 @@
         <v>6163801</v>
       </c>
       <c r="C185" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="D185" s="26" t="s">
         <v>911</v>
-      </c>
-      <c r="D185" s="26" t="s">
-        <v>912</v>
       </c>
       <c r="E185" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9906,10 +9906,10 @@
         <v>6163802</v>
       </c>
       <c r="C186" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="D186" s="26" t="s">
         <v>913</v>
-      </c>
-      <c r="D186" s="26" t="s">
-        <v>914</v>
       </c>
       <c r="E186" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9934,10 +9934,10 @@
         <v>6163833</v>
       </c>
       <c r="C187" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="D187" s="26" t="s">
         <v>915</v>
-      </c>
-      <c r="D187" s="26" t="s">
-        <v>916</v>
       </c>
       <c r="E187" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9962,10 +9962,10 @@
         <v>6163896</v>
       </c>
       <c r="C188" s="26" t="s">
+        <v>916</v>
+      </c>
+      <c r="D188" s="26" t="s">
         <v>917</v>
-      </c>
-      <c r="D188" s="26" t="s">
-        <v>918</v>
       </c>
       <c r="E188" s="11" t="str">
         <f t="shared" si="6"/>
@@ -9990,10 +9990,10 @@
         <v>6163948</v>
       </c>
       <c r="C189" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="D189" s="26" t="s">
         <v>919</v>
-      </c>
-      <c r="D189" s="26" t="s">
-        <v>920</v>
       </c>
       <c r="E189" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10018,10 +10018,10 @@
         <v>6163949</v>
       </c>
       <c r="C190" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="D190" s="26" t="s">
         <v>919</v>
-      </c>
-      <c r="D190" s="26" t="s">
-        <v>920</v>
       </c>
       <c r="E190" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10046,10 +10046,10 @@
         <v>6163950</v>
       </c>
       <c r="C191" s="26" t="s">
+        <v>920</v>
+      </c>
+      <c r="D191" s="26" t="s">
         <v>921</v>
-      </c>
-      <c r="D191" s="26" t="s">
-        <v>922</v>
       </c>
       <c r="E191" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10074,10 +10074,10 @@
         <v>6163951</v>
       </c>
       <c r="C192" s="26" t="s">
+        <v>920</v>
+      </c>
+      <c r="D192" s="26" t="s">
         <v>921</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>922</v>
       </c>
       <c r="E192" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10102,10 +10102,10 @@
         <v>6163982</v>
       </c>
       <c r="C193" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="D193" s="26" t="s">
         <v>923</v>
-      </c>
-      <c r="D193" s="26" t="s">
-        <v>924</v>
       </c>
       <c r="E193" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10130,10 +10130,10 @@
         <v>6163996</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E194" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10158,10 +10158,10 @@
         <v>6164230</v>
       </c>
       <c r="C195" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="D195" s="26" t="s">
         <v>926</v>
-      </c>
-      <c r="D195" s="26" t="s">
-        <v>927</v>
       </c>
       <c r="E195" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10186,10 +10186,10 @@
         <v>6164231</v>
       </c>
       <c r="C196" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="D196" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="D196" s="26" t="s">
-        <v>929</v>
       </c>
       <c r="E196" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10214,10 +10214,10 @@
         <v>6164255</v>
       </c>
       <c r="C197" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="D197" s="26" t="s">
         <v>930</v>
-      </c>
-      <c r="D197" s="26" t="s">
-        <v>931</v>
       </c>
       <c r="E197" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10242,10 +10242,10 @@
         <v>6164295</v>
       </c>
       <c r="C198" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="D198" s="26" t="s">
         <v>932</v>
-      </c>
-      <c r="D198" s="26" t="s">
-        <v>933</v>
       </c>
       <c r="E198" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10270,10 +10270,10 @@
         <v>6164296</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E199" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10298,10 +10298,10 @@
         <v>6164297</v>
       </c>
       <c r="C200" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="D200" s="26" t="s">
         <v>935</v>
-      </c>
-      <c r="D200" s="26" t="s">
-        <v>936</v>
       </c>
       <c r="E200" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10326,10 +10326,10 @@
         <v>6164298</v>
       </c>
       <c r="C201" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="D201" s="26" t="s">
         <v>937</v>
-      </c>
-      <c r="D201" s="26" t="s">
-        <v>938</v>
       </c>
       <c r="E201" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10354,10 +10354,10 @@
         <v>6164299</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E202" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10382,10 +10382,10 @@
         <v>6164300</v>
       </c>
       <c r="C203" s="26" t="s">
+        <v>939</v>
+      </c>
+      <c r="D203" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="D203" s="26" t="s">
-        <v>941</v>
       </c>
       <c r="E203" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10410,10 +10410,10 @@
         <v>6164301</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E204" s="11" t="str">
         <f t="shared" si="6"/>
@@ -10438,10 +10438,10 @@
         <v>6164302</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E205" s="11" t="str">
         <f t="shared" ref="E205:E268" si="8">CONCATENATE("s",A205)</f>
@@ -10466,10 +10466,10 @@
         <v>6164304</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E206" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10494,10 +10494,10 @@
         <v>6164305</v>
       </c>
       <c r="C207" s="26" t="s">
+        <v>941</v>
+      </c>
+      <c r="D207" s="26" t="s">
         <v>942</v>
-      </c>
-      <c r="D207" s="26" t="s">
-        <v>943</v>
       </c>
       <c r="E207" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10522,10 +10522,10 @@
         <v>6164306</v>
       </c>
       <c r="C208" s="26" t="s">
+        <v>943</v>
+      </c>
+      <c r="D208" s="26" t="s">
         <v>944</v>
-      </c>
-      <c r="D208" s="26" t="s">
-        <v>945</v>
       </c>
       <c r="E208" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10550,10 +10550,10 @@
         <v>6164307</v>
       </c>
       <c r="C209" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="D209" s="26" t="s">
         <v>946</v>
-      </c>
-      <c r="D209" s="26" t="s">
-        <v>947</v>
       </c>
       <c r="E209" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10578,10 +10578,10 @@
         <v>6164308</v>
       </c>
       <c r="C210" s="26" t="s">
+        <v>947</v>
+      </c>
+      <c r="D210" s="26" t="s">
         <v>948</v>
-      </c>
-      <c r="D210" s="26" t="s">
-        <v>949</v>
       </c>
       <c r="E210" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10606,10 +10606,10 @@
         <v>6164314</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E211" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10634,10 +10634,10 @@
         <v>6164340</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E212" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10662,10 +10662,10 @@
         <v>6164349</v>
       </c>
       <c r="C213" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="D213" s="26" t="s">
         <v>952</v>
-      </c>
-      <c r="D213" s="26" t="s">
-        <v>953</v>
       </c>
       <c r="E213" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10690,10 +10690,10 @@
         <v>6164375</v>
       </c>
       <c r="C214" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="D214" s="26" t="s">
         <v>954</v>
-      </c>
-      <c r="D214" s="26" t="s">
-        <v>955</v>
       </c>
       <c r="E214" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10718,10 +10718,10 @@
         <v>6164391</v>
       </c>
       <c r="C215" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="D215" s="26" t="s">
         <v>956</v>
-      </c>
-      <c r="D215" s="26" t="s">
-        <v>957</v>
       </c>
       <c r="E215" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10746,10 +10746,10 @@
         <v>6164393</v>
       </c>
       <c r="C216" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="D216" s="26" t="s">
         <v>958</v>
-      </c>
-      <c r="D216" s="26" t="s">
-        <v>959</v>
       </c>
       <c r="E216" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10774,10 +10774,10 @@
         <v>6164394</v>
       </c>
       <c r="C217" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="D217" s="26" t="s">
         <v>960</v>
-      </c>
-      <c r="D217" s="26" t="s">
-        <v>961</v>
       </c>
       <c r="E217" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10802,10 +10802,10 @@
         <v>6164398</v>
       </c>
       <c r="C218" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="D218" s="26" t="s">
         <v>962</v>
-      </c>
-      <c r="D218" s="26" t="s">
-        <v>963</v>
       </c>
       <c r="E218" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10830,10 +10830,10 @@
         <v>6164399</v>
       </c>
       <c r="C219" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="D219" s="26" t="s">
         <v>964</v>
-      </c>
-      <c r="D219" s="26" t="s">
-        <v>965</v>
       </c>
       <c r="E219" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10858,10 +10858,10 @@
         <v>6164462</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E220" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10886,10 +10886,10 @@
         <v>6164482</v>
       </c>
       <c r="C221" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="D221" s="26" t="s">
         <v>967</v>
-      </c>
-      <c r="D221" s="26" t="s">
-        <v>968</v>
       </c>
       <c r="E221" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10914,10 +10914,10 @@
         <v>6164483</v>
       </c>
       <c r="C222" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="D222" s="26" t="s">
         <v>969</v>
-      </c>
-      <c r="D222" s="26" t="s">
-        <v>970</v>
       </c>
       <c r="E222" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10942,10 +10942,10 @@
         <v>6164500</v>
       </c>
       <c r="C223" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="D223" s="26" t="s">
         <v>971</v>
-      </c>
-      <c r="D223" s="26" t="s">
-        <v>972</v>
       </c>
       <c r="E223" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10970,10 +10970,10 @@
         <v>6164510</v>
       </c>
       <c r="C224" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="D224" s="26" t="s">
         <v>973</v>
-      </c>
-      <c r="D224" s="26" t="s">
-        <v>974</v>
       </c>
       <c r="E224" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10998,10 +10998,10 @@
         <v>6164511</v>
       </c>
       <c r="C225" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="D225" s="26" t="s">
         <v>973</v>
-      </c>
-      <c r="D225" s="26" t="s">
-        <v>974</v>
       </c>
       <c r="E225" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11026,10 +11026,10 @@
         <v>6164518</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E226" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11054,10 +11054,10 @@
         <v>6164520</v>
       </c>
       <c r="C227" s="26" t="s">
+        <v>975</v>
+      </c>
+      <c r="D227" s="26" t="s">
         <v>976</v>
-      </c>
-      <c r="D227" s="26" t="s">
-        <v>977</v>
       </c>
       <c r="E227" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11082,10 +11082,10 @@
         <v>6164523</v>
       </c>
       <c r="C228" s="26" t="s">
+        <v>977</v>
+      </c>
+      <c r="D228" s="26" t="s">
         <v>978</v>
-      </c>
-      <c r="D228" s="26" t="s">
-        <v>979</v>
       </c>
       <c r="E228" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11110,10 +11110,10 @@
         <v>6164536</v>
       </c>
       <c r="C229" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="D229" s="26" t="s">
         <v>980</v>
-      </c>
-      <c r="D229" s="26" t="s">
-        <v>981</v>
       </c>
       <c r="E229" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11138,10 +11138,10 @@
         <v>6164537</v>
       </c>
       <c r="C230" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="D230" s="26" t="s">
         <v>982</v>
-      </c>
-      <c r="D230" s="26" t="s">
-        <v>983</v>
       </c>
       <c r="E230" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11166,10 +11166,10 @@
         <v>6164559</v>
       </c>
       <c r="C231" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="D231" s="26" t="s">
         <v>984</v>
-      </c>
-      <c r="D231" s="26" t="s">
-        <v>985</v>
       </c>
       <c r="E231" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11194,10 +11194,10 @@
         <v>6164560</v>
       </c>
       <c r="C232" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="D232" s="26" t="s">
         <v>986</v>
-      </c>
-      <c r="D232" s="26" t="s">
-        <v>987</v>
       </c>
       <c r="E232" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11222,10 +11222,10 @@
         <v>6164561</v>
       </c>
       <c r="C233" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="D233" s="26" t="s">
         <v>988</v>
-      </c>
-      <c r="D233" s="26" t="s">
-        <v>989</v>
       </c>
       <c r="E233" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11250,10 +11250,10 @@
         <v>6164562</v>
       </c>
       <c r="C234" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="D234" s="26" t="s">
         <v>990</v>
-      </c>
-      <c r="D234" s="26" t="s">
-        <v>991</v>
       </c>
       <c r="E234" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11278,10 +11278,10 @@
         <v>6164563</v>
       </c>
       <c r="C235" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="D235" s="26" t="s">
         <v>992</v>
-      </c>
-      <c r="D235" s="26" t="s">
-        <v>993</v>
       </c>
       <c r="E235" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11306,10 +11306,10 @@
         <v>6164564</v>
       </c>
       <c r="C236" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="D236" s="26" t="s">
         <v>994</v>
-      </c>
-      <c r="D236" s="26" t="s">
-        <v>995</v>
       </c>
       <c r="E236" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11334,10 +11334,10 @@
         <v>6164565</v>
       </c>
       <c r="C237" s="26" t="s">
+        <v>995</v>
+      </c>
+      <c r="D237" s="26" t="s">
         <v>996</v>
-      </c>
-      <c r="D237" s="26" t="s">
-        <v>997</v>
       </c>
       <c r="E237" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11362,10 +11362,10 @@
         <v>6164566</v>
       </c>
       <c r="C238" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="D238" s="26" t="s">
         <v>998</v>
-      </c>
-      <c r="D238" s="26" t="s">
-        <v>999</v>
       </c>
       <c r="E238" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11390,10 +11390,10 @@
         <v>6164567</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E239" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11418,10 +11418,10 @@
         <v>6164568</v>
       </c>
       <c r="C240" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D240" s="26" t="s">
         <v>1001</v>
-      </c>
-      <c r="D240" s="26" t="s">
-        <v>1002</v>
       </c>
       <c r="E240" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11446,10 +11446,10 @@
         <v>6164569</v>
       </c>
       <c r="C241" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D241" s="26" t="s">
         <v>1003</v>
-      </c>
-      <c r="D241" s="26" t="s">
-        <v>1004</v>
       </c>
       <c r="E241" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11474,10 +11474,10 @@
         <v>6164570</v>
       </c>
       <c r="C242" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D242" s="26" t="s">
         <v>1005</v>
-      </c>
-      <c r="D242" s="26" t="s">
-        <v>1006</v>
       </c>
       <c r="E242" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11502,10 +11502,10 @@
         <v>6164571</v>
       </c>
       <c r="C243" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D243" s="26" t="s">
         <v>1007</v>
-      </c>
-      <c r="D243" s="26" t="s">
-        <v>1008</v>
       </c>
       <c r="E243" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11530,10 +11530,10 @@
         <v>6164573</v>
       </c>
       <c r="C244" s="26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D244" s="26" t="s">
         <v>1009</v>
-      </c>
-      <c r="D244" s="26" t="s">
-        <v>1010</v>
       </c>
       <c r="E244" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11558,10 +11558,10 @@
         <v>6164574</v>
       </c>
       <c r="C245" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D245" s="26" t="s">
         <v>1011</v>
-      </c>
-      <c r="D245" s="26" t="s">
-        <v>1012</v>
       </c>
       <c r="E245" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11586,10 +11586,10 @@
         <v>6164575</v>
       </c>
       <c r="C246" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D246" s="26" t="s">
         <v>1013</v>
-      </c>
-      <c r="D246" s="26" t="s">
-        <v>1014</v>
       </c>
       <c r="E246" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11614,10 +11614,10 @@
         <v>6164576</v>
       </c>
       <c r="C247" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D247" s="26" t="s">
         <v>1015</v>
-      </c>
-      <c r="D247" s="26" t="s">
-        <v>1016</v>
       </c>
       <c r="E247" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11642,10 +11642,10 @@
         <v>6164582</v>
       </c>
       <c r="C248" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D248" s="26" t="s">
         <v>1017</v>
-      </c>
-      <c r="D248" s="26" t="s">
-        <v>1018</v>
       </c>
       <c r="E248" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11670,10 +11670,10 @@
         <v>6164583</v>
       </c>
       <c r="C249" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D249" s="26" t="s">
         <v>1019</v>
-      </c>
-      <c r="D249" s="26" t="s">
-        <v>1020</v>
       </c>
       <c r="E249" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11698,10 +11698,10 @@
         <v>6164597</v>
       </c>
       <c r="C250" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D250" s="26" t="s">
         <v>1021</v>
-      </c>
-      <c r="D250" s="26" t="s">
-        <v>1022</v>
       </c>
       <c r="E250" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11726,10 +11726,10 @@
         <v>6164605</v>
       </c>
       <c r="C251" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D251" s="26" t="s">
         <v>1023</v>
-      </c>
-      <c r="D251" s="26" t="s">
-        <v>1024</v>
       </c>
       <c r="E251" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11754,10 +11754,10 @@
         <v>6164606</v>
       </c>
       <c r="C252" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D252" s="26" t="s">
         <v>1025</v>
-      </c>
-      <c r="D252" s="26" t="s">
-        <v>1026</v>
       </c>
       <c r="E252" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11782,10 +11782,10 @@
         <v>6164607</v>
       </c>
       <c r="C253" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D253" s="26" t="s">
         <v>1027</v>
-      </c>
-      <c r="D253" s="26" t="s">
-        <v>1028</v>
       </c>
       <c r="E253" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11810,10 +11810,10 @@
         <v>6164608</v>
       </c>
       <c r="C254" s="26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D254" s="26" t="s">
         <v>1029</v>
-      </c>
-      <c r="D254" s="26" t="s">
-        <v>1030</v>
       </c>
       <c r="E254" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11838,10 +11838,10 @@
         <v>6164619</v>
       </c>
       <c r="C255" s="26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D255" s="26" t="s">
         <v>1031</v>
-      </c>
-      <c r="D255" s="26" t="s">
-        <v>1032</v>
       </c>
       <c r="E255" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11866,10 +11866,10 @@
         <v>6164620</v>
       </c>
       <c r="C256" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D256" s="26" t="s">
         <v>1033</v>
-      </c>
-      <c r="D256" s="26" t="s">
-        <v>1034</v>
       </c>
       <c r="E256" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11894,10 +11894,10 @@
         <v>6164621</v>
       </c>
       <c r="C257" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D257" s="26" t="s">
         <v>1035</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>1036</v>
       </c>
       <c r="E257" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11922,10 +11922,10 @@
         <v>6164622</v>
       </c>
       <c r="C258" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D258" s="26" t="s">
         <v>1037</v>
-      </c>
-      <c r="D258" s="26" t="s">
-        <v>1038</v>
       </c>
       <c r="E258" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11950,10 +11950,10 @@
         <v>6164625</v>
       </c>
       <c r="C259" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D259" s="26" t="s">
         <v>1039</v>
-      </c>
-      <c r="D259" s="26" t="s">
-        <v>1040</v>
       </c>
       <c r="E259" s="11" t="str">
         <f t="shared" si="8"/>
@@ -11978,10 +11978,10 @@
         <v>6164626</v>
       </c>
       <c r="C260" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D260" s="26" t="s">
         <v>1041</v>
-      </c>
-      <c r="D260" s="26" t="s">
-        <v>1042</v>
       </c>
       <c r="E260" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12006,10 +12006,10 @@
         <v>6164630</v>
       </c>
       <c r="C261" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D261" s="26" t="s">
         <v>1043</v>
-      </c>
-      <c r="D261" s="26" t="s">
-        <v>1044</v>
       </c>
       <c r="E261" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12034,10 +12034,10 @@
         <v>6164631</v>
       </c>
       <c r="C262" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D262" s="26" t="s">
         <v>1045</v>
-      </c>
-      <c r="D262" s="26" t="s">
-        <v>1046</v>
       </c>
       <c r="E262" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12062,10 +12062,10 @@
         <v>6164640</v>
       </c>
       <c r="C263" s="26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D263" s="26" t="s">
         <v>1047</v>
-      </c>
-      <c r="D263" s="26" t="s">
-        <v>1048</v>
       </c>
       <c r="E263" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12090,10 +12090,10 @@
         <v>6164642</v>
       </c>
       <c r="C264" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D264" s="26" t="s">
         <v>1049</v>
-      </c>
-      <c r="D264" s="26" t="s">
-        <v>1050</v>
       </c>
       <c r="E264" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12118,10 +12118,10 @@
         <v>6164645</v>
       </c>
       <c r="C265" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D265" s="26" t="s">
         <v>1051</v>
-      </c>
-      <c r="D265" s="26" t="s">
-        <v>1052</v>
       </c>
       <c r="E265" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12146,10 +12146,10 @@
         <v>6164648</v>
       </c>
       <c r="C266" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D266" s="26" t="s">
         <v>1053</v>
-      </c>
-      <c r="D266" s="26" t="s">
-        <v>1054</v>
       </c>
       <c r="E266" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12174,10 +12174,10 @@
         <v>6164651</v>
       </c>
       <c r="C267" s="26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D267" s="26" t="s">
         <v>1055</v>
-      </c>
-      <c r="D267" s="26" t="s">
-        <v>1056</v>
       </c>
       <c r="E267" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12202,10 +12202,10 @@
         <v>6164652</v>
       </c>
       <c r="C268" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D268" s="26" t="s">
         <v>1057</v>
-      </c>
-      <c r="D268" s="26" t="s">
-        <v>1058</v>
       </c>
       <c r="E268" s="11" t="str">
         <f t="shared" si="8"/>
@@ -12230,10 +12230,10 @@
         <v>6164654</v>
       </c>
       <c r="C269" s="26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D269" s="26" t="s">
         <v>1059</v>
-      </c>
-      <c r="D269" s="26" t="s">
-        <v>1060</v>
       </c>
       <c r="E269" s="11" t="str">
         <f t="shared" ref="E269:E332" si="10">CONCATENATE("s",A269)</f>
@@ -12258,10 +12258,10 @@
         <v>6164656</v>
       </c>
       <c r="C270" s="26" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D270" s="26" t="s">
         <v>1061</v>
-      </c>
-      <c r="D270" s="26" t="s">
-        <v>1062</v>
       </c>
       <c r="E270" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12286,10 +12286,10 @@
         <v>6164657</v>
       </c>
       <c r="C271" s="26" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D271" s="26" t="s">
         <v>1063</v>
-      </c>
-      <c r="D271" s="26" t="s">
-        <v>1064</v>
       </c>
       <c r="E271" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12314,10 +12314,10 @@
         <v>6164658</v>
       </c>
       <c r="C272" s="26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D272" s="26" t="s">
         <v>1065</v>
-      </c>
-      <c r="D272" s="26" t="s">
-        <v>1066</v>
       </c>
       <c r="E272" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12342,10 +12342,10 @@
         <v>6164659</v>
       </c>
       <c r="C273" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D273" s="26" t="s">
         <v>1067</v>
-      </c>
-      <c r="D273" s="26" t="s">
-        <v>1068</v>
       </c>
       <c r="E273" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12370,10 +12370,10 @@
         <v>6164660</v>
       </c>
       <c r="C274" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D274" s="26" t="s">
         <v>1069</v>
-      </c>
-      <c r="D274" s="26" t="s">
-        <v>1070</v>
       </c>
       <c r="E274" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12398,10 +12398,10 @@
         <v>6164661</v>
       </c>
       <c r="C275" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D275" s="26" t="s">
         <v>1071</v>
-      </c>
-      <c r="D275" s="26" t="s">
-        <v>1072</v>
       </c>
       <c r="E275" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12426,10 +12426,10 @@
         <v>6164662</v>
       </c>
       <c r="C276" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D276" s="26" t="s">
         <v>1073</v>
-      </c>
-      <c r="D276" s="26" t="s">
-        <v>1074</v>
       </c>
       <c r="E276" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12454,10 +12454,10 @@
         <v>6164667</v>
       </c>
       <c r="C277" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D277" s="26" t="s">
         <v>1075</v>
-      </c>
-      <c r="D277" s="26" t="s">
-        <v>1076</v>
       </c>
       <c r="E277" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12482,10 +12482,10 @@
         <v>6164668</v>
       </c>
       <c r="C278" s="26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D278" s="26" t="s">
         <v>1077</v>
-      </c>
-      <c r="D278" s="26" t="s">
-        <v>1078</v>
       </c>
       <c r="E278" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12510,10 +12510,10 @@
         <v>6164669</v>
       </c>
       <c r="C279" s="26" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D279" s="26" t="s">
         <v>1079</v>
-      </c>
-      <c r="D279" s="26" t="s">
-        <v>1080</v>
       </c>
       <c r="E279" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12538,10 +12538,10 @@
         <v>6164670</v>
       </c>
       <c r="C280" s="26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D280" s="26" t="s">
         <v>1081</v>
-      </c>
-      <c r="D280" s="26" t="s">
-        <v>1082</v>
       </c>
       <c r="E280" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12566,10 +12566,10 @@
         <v>6164671</v>
       </c>
       <c r="C281" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D281" s="26" t="s">
         <v>1083</v>
-      </c>
-      <c r="D281" s="26" t="s">
-        <v>1084</v>
       </c>
       <c r="E281" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12594,10 +12594,10 @@
         <v>6164672</v>
       </c>
       <c r="C282" s="26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D282" s="26" t="s">
         <v>1085</v>
-      </c>
-      <c r="D282" s="26" t="s">
-        <v>1086</v>
       </c>
       <c r="E282" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12622,10 +12622,10 @@
         <v>6164673</v>
       </c>
       <c r="C283" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D283" s="26" t="s">
         <v>1087</v>
-      </c>
-      <c r="D283" s="26" t="s">
-        <v>1088</v>
       </c>
       <c r="E283" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12650,10 +12650,10 @@
         <v>6164674</v>
       </c>
       <c r="C284" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D284" s="26" t="s">
         <v>1089</v>
-      </c>
-      <c r="D284" s="26" t="s">
-        <v>1090</v>
       </c>
       <c r="E284" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12678,10 +12678,10 @@
         <v>6164675</v>
       </c>
       <c r="C285" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D285" s="26" t="s">
         <v>1091</v>
-      </c>
-      <c r="D285" s="26" t="s">
-        <v>1092</v>
       </c>
       <c r="E285" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12706,10 +12706,10 @@
         <v>6164676</v>
       </c>
       <c r="C286" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D286" s="26" t="s">
         <v>1093</v>
-      </c>
-      <c r="D286" s="26" t="s">
-        <v>1094</v>
       </c>
       <c r="E286" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12734,10 +12734,10 @@
         <v>6164677</v>
       </c>
       <c r="C287" s="26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>1095</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>1096</v>
       </c>
       <c r="E287" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12762,10 +12762,10 @@
         <v>6164678</v>
       </c>
       <c r="C288" s="26" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D288" s="26" t="s">
         <v>1097</v>
-      </c>
-      <c r="D288" s="26" t="s">
-        <v>1098</v>
       </c>
       <c r="E288" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12790,10 +12790,10 @@
         <v>6164680</v>
       </c>
       <c r="C289" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D289" s="26" t="s">
         <v>1099</v>
-      </c>
-      <c r="D289" s="26" t="s">
-        <v>1100</v>
       </c>
       <c r="E289" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12818,10 +12818,10 @@
         <v>6164681</v>
       </c>
       <c r="C290" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D290" s="26" t="s">
         <v>1101</v>
-      </c>
-      <c r="D290" s="26" t="s">
-        <v>1102</v>
       </c>
       <c r="E290" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12846,10 +12846,10 @@
         <v>6164682</v>
       </c>
       <c r="C291" s="26" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D291" s="26" t="s">
         <v>1103</v>
-      </c>
-      <c r="D291" s="26" t="s">
-        <v>1104</v>
       </c>
       <c r="E291" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12874,10 +12874,10 @@
         <v>6164683</v>
       </c>
       <c r="C292" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D292" s="26" t="s">
         <v>1105</v>
-      </c>
-      <c r="D292" s="26" t="s">
-        <v>1106</v>
       </c>
       <c r="E292" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12902,10 +12902,10 @@
         <v>6164685</v>
       </c>
       <c r="C293" s="26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D293" s="26" t="s">
         <v>1107</v>
-      </c>
-      <c r="D293" s="26" t="s">
-        <v>1108</v>
       </c>
       <c r="E293" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12930,10 +12930,10 @@
         <v>6164686</v>
       </c>
       <c r="C294" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D294" s="26" t="s">
         <v>1109</v>
-      </c>
-      <c r="D294" s="26" t="s">
-        <v>1110</v>
       </c>
       <c r="E294" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12958,10 +12958,10 @@
         <v>6164687</v>
       </c>
       <c r="C295" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D295" s="26" t="s">
         <v>1109</v>
-      </c>
-      <c r="D295" s="26" t="s">
-        <v>1110</v>
       </c>
       <c r="E295" s="11" t="str">
         <f t="shared" si="10"/>
@@ -12986,10 +12986,10 @@
         <v>6164688</v>
       </c>
       <c r="C296" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D296" s="26" t="s">
         <v>1109</v>
-      </c>
-      <c r="D296" s="26" t="s">
-        <v>1110</v>
       </c>
       <c r="E296" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13014,10 +13014,10 @@
         <v>6164689</v>
       </c>
       <c r="C297" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D297" s="26" t="s">
         <v>1111</v>
-      </c>
-      <c r="D297" s="26" t="s">
-        <v>1112</v>
       </c>
       <c r="E297" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13042,10 +13042,10 @@
         <v>6164690</v>
       </c>
       <c r="C298" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D298" s="26" t="s">
         <v>1113</v>
-      </c>
-      <c r="D298" s="26" t="s">
-        <v>1114</v>
       </c>
       <c r="E298" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13070,10 +13070,10 @@
         <v>6164691</v>
       </c>
       <c r="C299" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D299" s="26" t="s">
         <v>1115</v>
-      </c>
-      <c r="D299" s="26" t="s">
-        <v>1116</v>
       </c>
       <c r="E299" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13098,10 +13098,10 @@
         <v>6164692</v>
       </c>
       <c r="C300" s="26" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D300" s="26" t="s">
         <v>1117</v>
-      </c>
-      <c r="D300" s="26" t="s">
-        <v>1118</v>
       </c>
       <c r="E300" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13126,10 +13126,10 @@
         <v>6164693</v>
       </c>
       <c r="C301" s="26" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D301" s="26" t="s">
         <v>1119</v>
-      </c>
-      <c r="D301" s="26" t="s">
-        <v>1120</v>
       </c>
       <c r="E301" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13154,10 +13154,10 @@
         <v>6164697</v>
       </c>
       <c r="C302" s="26" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D302" s="26" t="s">
         <v>1121</v>
-      </c>
-      <c r="D302" s="26" t="s">
-        <v>1122</v>
       </c>
       <c r="E302" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13182,10 +13182,10 @@
         <v>6164698</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E303" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13210,10 +13210,10 @@
         <v>6164699</v>
       </c>
       <c r="C304" s="26" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D304" s="26" t="s">
         <v>1124</v>
-      </c>
-      <c r="D304" s="26" t="s">
-        <v>1125</v>
       </c>
       <c r="E304" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13238,10 +13238,10 @@
         <v>6164700</v>
       </c>
       <c r="C305" s="26" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D305" s="26" t="s">
         <v>1126</v>
-      </c>
-      <c r="D305" s="26" t="s">
-        <v>1127</v>
       </c>
       <c r="E305" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13266,10 +13266,10 @@
         <v>6164701</v>
       </c>
       <c r="C306" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D306" s="26" t="s">
         <v>1128</v>
-      </c>
-      <c r="D306" s="26" t="s">
-        <v>1129</v>
       </c>
       <c r="E306" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13294,10 +13294,10 @@
         <v>6164702</v>
       </c>
       <c r="C307" s="26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>1130</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>1131</v>
       </c>
       <c r="E307" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13322,10 +13322,10 @@
         <v>6164703</v>
       </c>
       <c r="C308" s="26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>1132</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>1133</v>
       </c>
       <c r="E308" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13350,10 +13350,10 @@
         <v>6165324</v>
       </c>
       <c r="C309" s="26" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D309" s="26" t="s">
         <v>1134</v>
-      </c>
-      <c r="D309" s="26" t="s">
-        <v>1135</v>
       </c>
       <c r="E309" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13378,10 +13378,10 @@
         <v>6165325</v>
       </c>
       <c r="C310" s="26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D310" s="26" t="s">
         <v>1136</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>1137</v>
       </c>
       <c r="E310" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13406,10 +13406,10 @@
         <v>6165326</v>
       </c>
       <c r="C311" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D311" s="26" t="s">
         <v>1138</v>
-      </c>
-      <c r="D311" s="26" t="s">
-        <v>1139</v>
       </c>
       <c r="E311" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13434,10 +13434,10 @@
         <v>6165331</v>
       </c>
       <c r="C312" s="26" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D312" s="26" t="s">
         <v>1140</v>
-      </c>
-      <c r="D312" s="26" t="s">
-        <v>1141</v>
       </c>
       <c r="E312" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13462,10 +13462,10 @@
         <v>6165332</v>
       </c>
       <c r="C313" s="26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D313" s="26" t="s">
         <v>1142</v>
-      </c>
-      <c r="D313" s="26" t="s">
-        <v>1143</v>
       </c>
       <c r="E313" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13490,10 +13490,10 @@
         <v>6165333</v>
       </c>
       <c r="C314" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D314" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="D314" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="E314" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13518,10 +13518,10 @@
         <v>6165334</v>
       </c>
       <c r="C315" s="26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D315" s="26" t="s">
         <v>1146</v>
-      </c>
-      <c r="D315" s="26" t="s">
-        <v>1147</v>
       </c>
       <c r="E315" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13546,10 +13546,10 @@
         <v>6165335</v>
       </c>
       <c r="C316" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D316" s="26" t="s">
         <v>1148</v>
-      </c>
-      <c r="D316" s="26" t="s">
-        <v>1149</v>
       </c>
       <c r="E316" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13574,10 +13574,10 @@
         <v>6165336</v>
       </c>
       <c r="C317" s="26" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D317" s="26" t="s">
         <v>1150</v>
-      </c>
-      <c r="D317" s="26" t="s">
-        <v>1151</v>
       </c>
       <c r="E317" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13602,10 +13602,10 @@
         <v>6165338</v>
       </c>
       <c r="C318" s="26" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D318" s="26" t="s">
         <v>1152</v>
-      </c>
-      <c r="D318" s="26" t="s">
-        <v>1153</v>
       </c>
       <c r="E318" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13630,10 +13630,10 @@
         <v>6165342</v>
       </c>
       <c r="C319" s="26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D319" s="26" t="s">
         <v>1154</v>
-      </c>
-      <c r="D319" s="26" t="s">
-        <v>1155</v>
       </c>
       <c r="E319" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13658,10 +13658,10 @@
         <v>6167047</v>
       </c>
       <c r="C320" s="26" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D320" s="26" t="s">
         <v>1156</v>
-      </c>
-      <c r="D320" s="26" t="s">
-        <v>1157</v>
       </c>
       <c r="E320" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13686,10 +13686,10 @@
         <v>6167048</v>
       </c>
       <c r="C321" s="26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D321" s="26" t="s">
         <v>1158</v>
-      </c>
-      <c r="D321" s="26" t="s">
-        <v>1159</v>
       </c>
       <c r="E321" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13714,10 +13714,10 @@
         <v>6167049</v>
       </c>
       <c r="C322" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D322" s="26" t="s">
         <v>1160</v>
-      </c>
-      <c r="D322" s="26" t="s">
-        <v>1161</v>
       </c>
       <c r="E322" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13742,10 +13742,10 @@
         <v>6167050</v>
       </c>
       <c r="C323" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D323" s="26" t="s">
         <v>1162</v>
-      </c>
-      <c r="D323" s="26" t="s">
-        <v>1163</v>
       </c>
       <c r="E323" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13770,10 +13770,10 @@
         <v>6167055</v>
       </c>
       <c r="C324" s="26" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D324" s="26" t="s">
         <v>1164</v>
-      </c>
-      <c r="D324" s="26" t="s">
-        <v>1165</v>
       </c>
       <c r="E324" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13798,10 +13798,10 @@
         <v>6167056</v>
       </c>
       <c r="C325" s="26" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D325" s="26" t="s">
         <v>1166</v>
-      </c>
-      <c r="D325" s="26" t="s">
-        <v>1167</v>
       </c>
       <c r="E325" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13826,10 +13826,10 @@
         <v>6167074</v>
       </c>
       <c r="C326" s="26" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D326" s="26" t="s">
         <v>1168</v>
-      </c>
-      <c r="D326" s="26" t="s">
-        <v>1169</v>
       </c>
       <c r="E326" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13854,10 +13854,10 @@
         <v>6167075</v>
       </c>
       <c r="C327" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D327" s="26" t="s">
         <v>1170</v>
-      </c>
-      <c r="D327" s="26" t="s">
-        <v>1171</v>
       </c>
       <c r="E327" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13882,10 +13882,10 @@
         <v>6167076</v>
       </c>
       <c r="C328" s="26" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D328" s="26" t="s">
         <v>1172</v>
-      </c>
-      <c r="D328" s="26" t="s">
-        <v>1173</v>
       </c>
       <c r="E328" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13910,10 +13910,10 @@
         <v>6167077</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1174</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1175</v>
       </c>
       <c r="E329" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13938,10 +13938,10 @@
         <v>6167078</v>
       </c>
       <c r="C330" s="26" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D330" s="26" t="s">
         <v>1176</v>
-      </c>
-      <c r="D330" s="26" t="s">
-        <v>1177</v>
       </c>
       <c r="E330" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13966,10 +13966,10 @@
         <v>6167079</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1178</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1179</v>
       </c>
       <c r="E331" s="11" t="str">
         <f t="shared" si="10"/>
@@ -13994,10 +13994,10 @@
         <v>6167080</v>
       </c>
       <c r="C332" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D332" s="26" t="s">
         <v>1180</v>
-      </c>
-      <c r="D332" s="26" t="s">
-        <v>1181</v>
       </c>
       <c r="E332" s="11" t="str">
         <f t="shared" si="10"/>
@@ -14022,10 +14022,10 @@
         <v>6167081</v>
       </c>
       <c r="C333" s="26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D333" s="26" t="s">
         <v>1182</v>
-      </c>
-      <c r="D333" s="26" t="s">
-        <v>1183</v>
       </c>
       <c r="E333" s="11" t="str">
         <f t="shared" ref="E333:E396" si="12">CONCATENATE("s",A333)</f>
@@ -14050,10 +14050,10 @@
         <v>6167093</v>
       </c>
       <c r="C334" s="26" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D334" s="26" t="s">
         <v>1184</v>
-      </c>
-      <c r="D334" s="26" t="s">
-        <v>1185</v>
       </c>
       <c r="E334" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14078,10 +14078,10 @@
         <v>6167094</v>
       </c>
       <c r="C335" s="26" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D335" s="26" t="s">
         <v>1160</v>
-      </c>
-      <c r="D335" s="26" t="s">
-        <v>1161</v>
       </c>
       <c r="E335" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14106,10 +14106,10 @@
         <v>6167095</v>
       </c>
       <c r="C336" s="26" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D336" s="26" t="s">
         <v>1186</v>
-      </c>
-      <c r="D336" s="26" t="s">
-        <v>1187</v>
       </c>
       <c r="E336" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14134,10 +14134,10 @@
         <v>6167096</v>
       </c>
       <c r="C337" s="26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D337" s="26" t="s">
         <v>1188</v>
-      </c>
-      <c r="D337" s="26" t="s">
-        <v>1189</v>
       </c>
       <c r="E337" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14162,10 +14162,10 @@
         <v>6167097</v>
       </c>
       <c r="C338" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D338" s="26" t="s">
         <v>1190</v>
-      </c>
-      <c r="D338" s="26" t="s">
-        <v>1191</v>
       </c>
       <c r="E338" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14190,10 +14190,10 @@
         <v>6167098</v>
       </c>
       <c r="C339" s="26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D339" s="26" t="s">
         <v>1192</v>
-      </c>
-      <c r="D339" s="26" t="s">
-        <v>1193</v>
       </c>
       <c r="E339" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14218,10 +14218,10 @@
         <v>6167099</v>
       </c>
       <c r="C340" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D340" s="26" t="s">
         <v>1194</v>
-      </c>
-      <c r="D340" s="26" t="s">
-        <v>1195</v>
       </c>
       <c r="E340" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14246,10 +14246,10 @@
         <v>6167102</v>
       </c>
       <c r="C341" s="26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D341" s="26" t="s">
         <v>1196</v>
-      </c>
-      <c r="D341" s="26" t="s">
-        <v>1197</v>
       </c>
       <c r="E341" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14274,10 +14274,10 @@
         <v>6167103</v>
       </c>
       <c r="C342" s="26" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D342" s="26" t="s">
         <v>1198</v>
-      </c>
-      <c r="D342" s="26" t="s">
-        <v>1199</v>
       </c>
       <c r="E342" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14302,10 +14302,10 @@
         <v>6167104</v>
       </c>
       <c r="C343" s="26" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D343" s="26" t="s">
         <v>1200</v>
-      </c>
-      <c r="D343" s="26" t="s">
-        <v>1201</v>
       </c>
       <c r="E343" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14330,10 +14330,10 @@
         <v>6167105</v>
       </c>
       <c r="C344" s="26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D344" s="26" t="s">
         <v>1202</v>
-      </c>
-      <c r="D344" s="26" t="s">
-        <v>1203</v>
       </c>
       <c r="E344" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14358,10 +14358,10 @@
         <v>6167112</v>
       </c>
       <c r="C345" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D345" s="26" t="s">
         <v>1204</v>
-      </c>
-      <c r="D345" s="26" t="s">
-        <v>1205</v>
       </c>
       <c r="E345" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14386,10 +14386,10 @@
         <v>6167113</v>
       </c>
       <c r="C346" s="26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D346" s="26" t="s">
         <v>1206</v>
-      </c>
-      <c r="D346" s="26" t="s">
-        <v>1207</v>
       </c>
       <c r="E346" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14414,10 +14414,10 @@
         <v>6167114</v>
       </c>
       <c r="C347" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D347" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="D347" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="E347" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14442,10 +14442,10 @@
         <v>6174125</v>
       </c>
       <c r="C348" s="26" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D348" s="26" t="s">
         <v>1208</v>
-      </c>
-      <c r="D348" s="26" t="s">
-        <v>1209</v>
       </c>
       <c r="E348" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14470,10 +14470,10 @@
         <v>616003</v>
       </c>
       <c r="C349" s="26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D349" s="26" t="s">
         <v>1210</v>
-      </c>
-      <c r="D349" s="26" t="s">
-        <v>1211</v>
       </c>
       <c r="E349" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14498,10 +14498,10 @@
         <v>616004</v>
       </c>
       <c r="C350" s="26" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D350" s="26" t="s">
         <v>1212</v>
-      </c>
-      <c r="D350" s="26" t="s">
-        <v>1213</v>
       </c>
       <c r="E350" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14526,10 +14526,10 @@
         <v>616014</v>
       </c>
       <c r="C351" s="26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D351" s="26" t="s">
         <v>1214</v>
-      </c>
-      <c r="D351" s="26" t="s">
-        <v>1215</v>
       </c>
       <c r="E351" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14554,10 +14554,10 @@
         <v>616015</v>
       </c>
       <c r="C352" s="26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D352" s="26" t="s">
         <v>1216</v>
-      </c>
-      <c r="D352" s="26" t="s">
-        <v>1217</v>
       </c>
       <c r="E352" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14582,10 +14582,10 @@
         <v>616018</v>
       </c>
       <c r="C353" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D353" s="26" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E353" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14610,10 +14610,10 @@
         <v>616027</v>
       </c>
       <c r="C354" s="26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D354" s="26" t="s">
         <v>1219</v>
-      </c>
-      <c r="D354" s="26" t="s">
-        <v>1220</v>
       </c>
       <c r="E354" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14638,10 +14638,10 @@
         <v>616028</v>
       </c>
       <c r="C355" s="26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D355" s="26" t="s">
         <v>1221</v>
-      </c>
-      <c r="D355" s="26" t="s">
-        <v>1222</v>
       </c>
       <c r="E355" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14666,10 +14666,10 @@
         <v>616029</v>
       </c>
       <c r="C356" s="26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D356" s="26" t="s">
         <v>1223</v>
-      </c>
-      <c r="D356" s="26" t="s">
-        <v>1224</v>
       </c>
       <c r="E356" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14694,10 +14694,10 @@
         <v>616031</v>
       </c>
       <c r="C357" s="26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D357" s="26" t="s">
         <v>1225</v>
-      </c>
-      <c r="D357" s="26" t="s">
-        <v>1226</v>
       </c>
       <c r="E357" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14722,10 +14722,10 @@
         <v>616038</v>
       </c>
       <c r="C358" s="26" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D358" s="26" t="s">
         <v>1227</v>
-      </c>
-      <c r="D358" s="26" t="s">
-        <v>1228</v>
       </c>
       <c r="E358" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14750,10 +14750,10 @@
         <v>616040</v>
       </c>
       <c r="C359" s="26" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D359" s="26" t="s">
         <v>1229</v>
-      </c>
-      <c r="D359" s="26" t="s">
-        <v>1230</v>
       </c>
       <c r="E359" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14778,10 +14778,10 @@
         <v>616042</v>
       </c>
       <c r="C360" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E360" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14806,10 +14806,10 @@
         <v>616043</v>
       </c>
       <c r="C361" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E361" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14834,10 +14834,10 @@
         <v>616044</v>
       </c>
       <c r="C362" s="26" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D362" s="26" t="s">
         <v>1233</v>
-      </c>
-      <c r="D362" s="26" t="s">
-        <v>1234</v>
       </c>
       <c r="E362" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14862,10 +14862,10 @@
         <v>616045</v>
       </c>
       <c r="C363" s="26" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D363" s="26" t="s">
         <v>1235</v>
-      </c>
-      <c r="D363" s="26" t="s">
-        <v>1236</v>
       </c>
       <c r="E363" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14890,10 +14890,10 @@
         <v>616046</v>
       </c>
       <c r="C364" s="26" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D364" s="26" t="s">
         <v>1237</v>
-      </c>
-      <c r="D364" s="26" t="s">
-        <v>1238</v>
       </c>
       <c r="E364" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14918,10 +14918,10 @@
         <v>616047</v>
       </c>
       <c r="C365" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D365" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E365" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14946,10 +14946,10 @@
         <v>616052</v>
       </c>
       <c r="C366" s="26" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D366" s="26" t="s">
         <v>1240</v>
-      </c>
-      <c r="D366" s="26" t="s">
-        <v>1241</v>
       </c>
       <c r="E366" s="11" t="str">
         <f t="shared" si="12"/>
@@ -14974,10 +14974,10 @@
         <v>616053</v>
       </c>
       <c r="C367" s="26" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D367" s="26" t="s">
         <v>1242</v>
-      </c>
-      <c r="D367" s="26" t="s">
-        <v>1243</v>
       </c>
       <c r="E367" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15002,10 +15002,10 @@
         <v>616054</v>
       </c>
       <c r="C368" s="26" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D368" s="26" t="s">
         <v>1244</v>
-      </c>
-      <c r="D368" s="26" t="s">
-        <v>1245</v>
       </c>
       <c r="E368" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15030,10 +15030,10 @@
         <v>616056</v>
       </c>
       <c r="C369" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D369" s="26" t="s">
         <v>1246</v>
-      </c>
-      <c r="D369" s="26" t="s">
-        <v>1247</v>
       </c>
       <c r="E369" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15058,10 +15058,10 @@
         <v>616062</v>
       </c>
       <c r="C370" s="26" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D370" s="26" t="s">
         <v>1248</v>
-      </c>
-      <c r="D370" s="26" t="s">
-        <v>1249</v>
       </c>
       <c r="E370" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15086,10 +15086,10 @@
         <v>616066</v>
       </c>
       <c r="C371" s="26" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D371" s="26" t="s">
         <v>1250</v>
-      </c>
-      <c r="D371" s="26" t="s">
-        <v>1251</v>
       </c>
       <c r="E371" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15114,10 +15114,10 @@
         <v>616069</v>
       </c>
       <c r="C372" s="26" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D372" s="26" t="s">
         <v>1252</v>
-      </c>
-      <c r="D372" s="26" t="s">
-        <v>1253</v>
       </c>
       <c r="E372" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15142,10 +15142,10 @@
         <v>616071</v>
       </c>
       <c r="C373" s="26" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D373" s="26" t="s">
         <v>1254</v>
-      </c>
-      <c r="D373" s="26" t="s">
-        <v>1255</v>
       </c>
       <c r="E373" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15170,10 +15170,10 @@
         <v>616073</v>
       </c>
       <c r="C374" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D374" s="26" t="s">
         <v>1256</v>
-      </c>
-      <c r="D374" s="26" t="s">
-        <v>1257</v>
       </c>
       <c r="E374" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15198,10 +15198,10 @@
         <v>616076</v>
       </c>
       <c r="C375" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D375" s="26" t="s">
         <v>1258</v>
-      </c>
-      <c r="D375" s="26" t="s">
-        <v>1259</v>
       </c>
       <c r="E375" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15226,10 +15226,10 @@
         <v>616077</v>
       </c>
       <c r="C376" s="26" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D376" s="26" t="s">
         <v>1260</v>
-      </c>
-      <c r="D376" s="26" t="s">
-        <v>1261</v>
       </c>
       <c r="E376" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15254,10 +15254,10 @@
         <v>616082</v>
       </c>
       <c r="C377" s="26" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D377" s="26" t="s">
         <v>1262</v>
-      </c>
-      <c r="D377" s="26" t="s">
-        <v>1263</v>
       </c>
       <c r="E377" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15282,10 +15282,10 @@
         <v>616084</v>
       </c>
       <c r="C378" s="26" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D378" s="26" t="s">
         <v>1264</v>
-      </c>
-      <c r="D378" s="26" t="s">
-        <v>1265</v>
       </c>
       <c r="E378" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15310,10 +15310,10 @@
         <v>616086</v>
       </c>
       <c r="C379" s="26" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D379" s="26" t="s">
         <v>1266</v>
-      </c>
-      <c r="D379" s="26" t="s">
-        <v>1267</v>
       </c>
       <c r="E379" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15338,10 +15338,10 @@
         <v>616087</v>
       </c>
       <c r="C380" s="26" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E380" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15366,10 +15366,10 @@
         <v>616088</v>
       </c>
       <c r="C381" s="26" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D381" s="26" t="s">
         <v>1269</v>
-      </c>
-      <c r="D381" s="26" t="s">
-        <v>1270</v>
       </c>
       <c r="E381" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15394,10 +15394,10 @@
         <v>616089</v>
       </c>
       <c r="C382" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D382" s="26" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E382" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15422,10 +15422,10 @@
         <v>616091</v>
       </c>
       <c r="C383" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D383" s="26" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E383" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15450,10 +15450,10 @@
         <v>616092</v>
       </c>
       <c r="C384" s="26" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D384" s="26" t="s">
         <v>1273</v>
-      </c>
-      <c r="D384" s="26" t="s">
-        <v>1274</v>
       </c>
       <c r="E384" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15478,10 +15478,10 @@
         <v>616093</v>
       </c>
       <c r="C385" s="26" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D385" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E385" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15506,10 +15506,10 @@
         <v>616094</v>
       </c>
       <c r="C386" s="26" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D386" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E386" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15534,10 +15534,10 @@
         <v>616099</v>
       </c>
       <c r="C387" s="26" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D387" s="26" t="s">
         <v>1276</v>
-      </c>
-      <c r="D387" s="26" t="s">
-        <v>1277</v>
       </c>
       <c r="E387" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15562,10 +15562,10 @@
         <v>616107</v>
       </c>
       <c r="C388" s="26" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D388" s="26" t="s">
         <v>1278</v>
-      </c>
-      <c r="D388" s="26" t="s">
-        <v>1279</v>
       </c>
       <c r="E388" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15590,10 +15590,10 @@
         <v>616108</v>
       </c>
       <c r="C389" s="26" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D389" s="26" t="s">
         <v>1280</v>
-      </c>
-      <c r="D389" s="26" t="s">
-        <v>1281</v>
       </c>
       <c r="E389" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15618,10 +15618,10 @@
         <v>616109</v>
       </c>
       <c r="C390" s="26" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D390" s="26" t="s">
         <v>1282</v>
-      </c>
-      <c r="D390" s="26" t="s">
-        <v>1283</v>
       </c>
       <c r="E390" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15646,10 +15646,10 @@
         <v>616110</v>
       </c>
       <c r="C391" s="26" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D391" s="26" t="s">
         <v>1284</v>
-      </c>
-      <c r="D391" s="26" t="s">
-        <v>1285</v>
       </c>
       <c r="E391" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15674,10 +15674,10 @@
         <v>616116</v>
       </c>
       <c r="C392" s="26" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D392" s="26" t="s">
         <v>1286</v>
-      </c>
-      <c r="D392" s="26" t="s">
-        <v>1287</v>
       </c>
       <c r="E392" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15702,10 +15702,10 @@
         <v>616117</v>
       </c>
       <c r="C393" s="26" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D393" s="26" t="s">
         <v>1288</v>
-      </c>
-      <c r="D393" s="26" t="s">
-        <v>1289</v>
       </c>
       <c r="E393" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15730,10 +15730,10 @@
         <v>616118</v>
       </c>
       <c r="C394" s="26" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D394" s="26" t="s">
         <v>1290</v>
-      </c>
-      <c r="D394" s="26" t="s">
-        <v>1291</v>
       </c>
       <c r="E394" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15758,10 +15758,10 @@
         <v>616119</v>
       </c>
       <c r="C395" s="26" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D395" s="26" t="s">
         <v>1292</v>
-      </c>
-      <c r="D395" s="26" t="s">
-        <v>1293</v>
       </c>
       <c r="E395" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15786,10 +15786,10 @@
         <v>616123</v>
       </c>
       <c r="C396" s="26" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D396" s="26" t="s">
         <v>1294</v>
-      </c>
-      <c r="D396" s="26" t="s">
-        <v>1295</v>
       </c>
       <c r="E396" s="11" t="str">
         <f t="shared" si="12"/>
@@ -15814,10 +15814,10 @@
         <v>616131</v>
       </c>
       <c r="C397" s="26" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D397" s="26" t="s">
         <v>1296</v>
-      </c>
-      <c r="D397" s="26" t="s">
-        <v>1297</v>
       </c>
       <c r="E397" s="11" t="str">
         <f t="shared" ref="E397:E433" si="14">CONCATENATE("s",A397)</f>
@@ -15842,10 +15842,10 @@
         <v>616133</v>
       </c>
       <c r="C398" s="26" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D398" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E398" s="11" t="str">
         <f t="shared" si="14"/>
@@ -15870,10 +15870,10 @@
         <v>616135</v>
       </c>
       <c r="C399" s="26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D399" s="26" t="s">
         <v>1299</v>
-      </c>
-      <c r="D399" s="26" t="s">
-        <v>1300</v>
       </c>
       <c r="E399" s="11" t="str">
         <f t="shared" si="14"/>
@@ -15898,10 +15898,10 @@
         <v>616137</v>
       </c>
       <c r="C400" s="26" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D400" s="26" t="s">
         <v>1301</v>
-      </c>
-      <c r="D400" s="26" t="s">
-        <v>1302</v>
       </c>
       <c r="E400" s="11" t="str">
         <f t="shared" si="14"/>
@@ -15926,10 +15926,10 @@
         <v>616140</v>
       </c>
       <c r="C401" s="26" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D401" s="26" t="s">
         <v>1303</v>
-      </c>
-      <c r="D401" s="26" t="s">
-        <v>1304</v>
       </c>
       <c r="E401" s="11" t="str">
         <f t="shared" si="14"/>
@@ -15954,10 +15954,10 @@
         <v>616153</v>
       </c>
       <c r="C402" s="26" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D402" s="26" t="s">
         <v>1305</v>
-      </c>
-      <c r="D402" s="26" t="s">
-        <v>1306</v>
       </c>
       <c r="E402" s="11" t="str">
         <f t="shared" si="14"/>
@@ -15982,10 +15982,10 @@
         <v>616157</v>
       </c>
       <c r="C403" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D403" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E403" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16010,10 +16010,10 @@
         <v>616168</v>
       </c>
       <c r="C404" s="26" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D404" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E404" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16038,10 +16038,10 @@
         <v>616178</v>
       </c>
       <c r="C405" s="26" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D405" s="26" t="s">
         <v>1309</v>
-      </c>
-      <c r="D405" s="26" t="s">
-        <v>1310</v>
       </c>
       <c r="E405" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16066,10 +16066,10 @@
         <v>616189</v>
       </c>
       <c r="C406" s="26" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D406" s="26" t="s">
         <v>1311</v>
-      </c>
-      <c r="D406" s="26" t="s">
-        <v>1312</v>
       </c>
       <c r="E406" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16094,10 +16094,10 @@
         <v>616232</v>
       </c>
       <c r="C407" s="26" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D407" s="26" t="s">
         <v>1313</v>
-      </c>
-      <c r="D407" s="26" t="s">
-        <v>1314</v>
       </c>
       <c r="E407" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16122,10 +16122,10 @@
         <v>617165</v>
       </c>
       <c r="C408" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D408" s="26" t="s">
         <v>1315</v>
-      </c>
-      <c r="D408" s="26" t="s">
-        <v>1316</v>
       </c>
       <c r="E408" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16150,10 +16150,10 @@
         <v>6160118</v>
       </c>
       <c r="C409" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D409" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E409" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16178,10 +16178,10 @@
         <v>6160119</v>
       </c>
       <c r="C410" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D410" s="26" t="s">
         <v>583</v>
-      </c>
-      <c r="D410" s="26" t="s">
-        <v>584</v>
       </c>
       <c r="E410" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16206,10 +16206,10 @@
         <v>6160121</v>
       </c>
       <c r="C411" s="26" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D411" s="26" t="s">
         <v>1317</v>
-      </c>
-      <c r="D411" s="26" t="s">
-        <v>1318</v>
       </c>
       <c r="E411" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16234,10 +16234,10 @@
         <v>6160258</v>
       </c>
       <c r="C412" s="26" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D412" s="26" t="s">
         <v>1319</v>
-      </c>
-      <c r="D412" s="26" t="s">
-        <v>1320</v>
       </c>
       <c r="E412" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16262,10 +16262,10 @@
         <v>6160259</v>
       </c>
       <c r="C413" s="26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D413" s="26" t="s">
         <v>1321</v>
-      </c>
-      <c r="D413" s="26" t="s">
-        <v>1322</v>
       </c>
       <c r="E413" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16290,10 +16290,10 @@
         <v>6160262</v>
       </c>
       <c r="C414" s="26" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D414" s="26" t="s">
         <v>1323</v>
-      </c>
-      <c r="D414" s="26" t="s">
-        <v>1324</v>
       </c>
       <c r="E414" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16318,10 +16318,10 @@
         <v>6160263</v>
       </c>
       <c r="C415" s="26" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D415" s="26" t="s">
         <v>1325</v>
-      </c>
-      <c r="D415" s="26" t="s">
-        <v>1326</v>
       </c>
       <c r="E415" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16346,10 +16346,10 @@
         <v>6160764</v>
       </c>
       <c r="C416" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D416" s="26" t="s">
         <v>1327</v>
-      </c>
-      <c r="D416" s="26" t="s">
-        <v>1328</v>
       </c>
       <c r="E416" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16374,10 +16374,10 @@
         <v>6160930</v>
       </c>
       <c r="C417" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D417" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="D417" s="26" t="s">
-        <v>644</v>
       </c>
       <c r="E417" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16402,10 +16402,10 @@
         <v>6161086</v>
       </c>
       <c r="C418" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D418" s="26" t="s">
         <v>647</v>
-      </c>
-      <c r="D418" s="26" t="s">
-        <v>648</v>
       </c>
       <c r="E418" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16430,10 +16430,10 @@
         <v>6161821</v>
       </c>
       <c r="C419" s="26" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D419" s="26" t="s">
         <v>1329</v>
-      </c>
-      <c r="D419" s="26" t="s">
-        <v>1330</v>
       </c>
       <c r="E419" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16458,10 +16458,10 @@
         <v>6161854</v>
       </c>
       <c r="C420" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D420" s="26" t="s">
         <v>662</v>
-      </c>
-      <c r="D420" s="26" t="s">
-        <v>663</v>
       </c>
       <c r="E420" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16486,10 +16486,10 @@
         <v>6161869</v>
       </c>
       <c r="C421" s="26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D421" s="26" t="s">
         <v>1331</v>
-      </c>
-      <c r="D421" s="26" t="s">
-        <v>1332</v>
       </c>
       <c r="E421" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16514,10 +16514,10 @@
         <v>6161870</v>
       </c>
       <c r="C422" s="26" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D422" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E422" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16542,10 +16542,10 @@
         <v>6161878</v>
       </c>
       <c r="C423" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D423" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E423" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16570,10 +16570,10 @@
         <v>6161879</v>
       </c>
       <c r="C424" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D424" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E424" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16598,10 +16598,10 @@
         <v>6162045</v>
       </c>
       <c r="C425" s="26" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D425" s="26" t="s">
         <v>1335</v>
-      </c>
-      <c r="D425" s="26" t="s">
-        <v>1336</v>
       </c>
       <c r="E425" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16626,10 +16626,10 @@
         <v>6162300</v>
       </c>
       <c r="C426" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="D426" s="26" t="s">
         <v>687</v>
-      </c>
-      <c r="D426" s="26" t="s">
-        <v>688</v>
       </c>
       <c r="E426" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16654,10 +16654,10 @@
         <v>6163485</v>
       </c>
       <c r="C427" s="26" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D427" s="26" t="s">
         <v>1337</v>
-      </c>
-      <c r="D427" s="26" t="s">
-        <v>1338</v>
       </c>
       <c r="E427" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16682,10 +16682,10 @@
         <v>6163500</v>
       </c>
       <c r="C428" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="D428" s="26" t="s">
         <v>904</v>
-      </c>
-      <c r="D428" s="26" t="s">
-        <v>905</v>
       </c>
       <c r="E428" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16710,10 +16710,10 @@
         <v>6163833</v>
       </c>
       <c r="C429" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="D429" s="26" t="s">
         <v>915</v>
-      </c>
-      <c r="D429" s="26" t="s">
-        <v>916</v>
       </c>
       <c r="E429" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16738,10 +16738,10 @@
         <v>6163857</v>
       </c>
       <c r="C430" s="26" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D430" s="26" t="s">
         <v>1339</v>
-      </c>
-      <c r="D430" s="26" t="s">
-        <v>1340</v>
       </c>
       <c r="E430" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16766,10 +16766,10 @@
         <v>6163932</v>
       </c>
       <c r="C431" s="26" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D431" s="26" t="s">
         <v>1341</v>
-      </c>
-      <c r="D431" s="26" t="s">
-        <v>1342</v>
       </c>
       <c r="E431" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16794,10 +16794,10 @@
         <v>6164323</v>
       </c>
       <c r="C432" s="26" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D432" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E432" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16822,10 +16822,10 @@
         <v>6167114</v>
       </c>
       <c r="C433" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D433" s="26" t="s">
         <v>564</v>
-      </c>
-      <c r="D433" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="E433" s="11" t="str">
         <f t="shared" si="14"/>
@@ -16850,16 +16850,16 @@
         <v>6163143</v>
       </c>
       <c r="C434" s="26" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D434" s="26" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E434" s="26" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F434" s="26" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G434" s="26">
         <v>401339</v>
@@ -16876,16 +16876,16 @@
         <v>616011</v>
       </c>
       <c r="C435" s="26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D435" s="26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E435" s="26" t="s">
         <v>1357</v>
       </c>
-      <c r="D435" s="26" t="s">
+      <c r="F435" s="26" t="s">
         <v>1357</v>
-      </c>
-      <c r="E435" s="26" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F435" s="26" t="s">
-        <v>1358</v>
       </c>
       <c r="G435" s="26">
         <v>411778</v>
@@ -16902,16 +16902,16 @@
         <v>6161838</v>
       </c>
       <c r="C436" s="26" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D436" s="26" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E436" s="26" t="s">
         <v>1359</v>
       </c>
-      <c r="D436" s="26" t="s">
+      <c r="F436" s="26" t="s">
         <v>1359</v>
-      </c>
-      <c r="E436" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F436" s="26" t="s">
-        <v>1360</v>
       </c>
       <c r="G436" s="26">
         <v>393509</v>
@@ -16928,16 +16928,16 @@
         <v>6161837</v>
       </c>
       <c r="C437" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D437" s="26" t="s">
         <v>1361</v>
       </c>
-      <c r="D437" s="26" t="s">
-        <v>1362</v>
-      </c>
       <c r="E437" s="26" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F437" s="26" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G437" s="26">
         <v>396239</v>
@@ -16954,16 +16954,16 @@
         <v>6163179</v>
       </c>
       <c r="C438" s="26" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D438" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="D438" s="26" t="s">
-        <v>1364</v>
-      </c>
       <c r="E438" s="26" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F438" s="26" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G438" s="26">
         <v>391725</v>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -25431,7 +25431,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -25439,7 +25439,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -25447,7 +25447,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -25455,7 +25455,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -25463,7 +25463,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -25471,7 +25471,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -25479,7 +25479,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -25487,7 +25487,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -25495,7 +25495,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -25509,10 +25509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25975,7 +25975,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>116</v>
@@ -27361,7 +27361,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>361</v>
@@ -27449,10 +27449,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>38</v>
@@ -27460,10 +27460,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>38</v>
@@ -27471,10 +27471,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>38</v>
@@ -27482,10 +27482,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>38</v>
@@ -27493,10 +27493,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>38</v>
@@ -27504,10 +27504,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>38</v>
@@ -27515,7 +27515,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -27526,7 +27526,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>9</v>
@@ -27537,7 +27537,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>11</v>
@@ -27548,7 +27548,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>13</v>
@@ -27559,7 +27559,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>23</v>
@@ -27570,7 +27570,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>25</v>
@@ -27581,7 +27581,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>27</v>
@@ -27592,7 +27592,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>17</v>
@@ -27603,7 +27603,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>19</v>
@@ -27614,7 +27614,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>21</v>
@@ -27625,10 +27625,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>38</v>
@@ -27636,10 +27636,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B193" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>38</v>
@@ -27658,10 +27658,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>38</v>
@@ -27672,9 +27672,31 @@
         <v>234</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28084,7 +28106,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>104</v>
@@ -29525,7 +29547,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>361</v>
@@ -29613,10 +29635,10 @@
     </row>
     <row r="175" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>38</v>
@@ -29624,10 +29646,10 @@
     </row>
     <row r="176" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>38</v>
@@ -29635,10 +29657,10 @@
     </row>
     <row r="177" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>38</v>
@@ -29646,10 +29668,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>38</v>
@@ -29657,10 +29679,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>38</v>
@@ -29668,10 +29690,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>38</v>
@@ -29679,7 +29701,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>15</v>
@@ -29690,7 +29712,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>9</v>
@@ -29701,7 +29723,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>11</v>
@@ -29712,7 +29734,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>13</v>
@@ -29723,7 +29745,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>23</v>
@@ -29734,7 +29756,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>25</v>
@@ -29745,7 +29767,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>27</v>
@@ -29756,7 +29778,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>17</v>
@@ -29767,7 +29789,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>19</v>
@@ -29778,7 +29800,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>21</v>
@@ -29796,8 +29818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205:E205"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204:B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30897,7 +30919,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>259</v>
@@ -30939,7 +30961,7 @@
         <v>255</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -31663,13 +31685,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="C119" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>540</v>
       </c>
       <c r="D119" s="10">
         <f>1000/14</f>
@@ -31681,10 +31703,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>384</v>
@@ -31712,10 +31734,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>384</v>
@@ -31728,7 +31750,7 @@
         <v>234</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>498</v>
@@ -32380,7 +32402,7 @@
         <v>345</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>499</v>
+        <v>1367</v>
       </c>
       <c r="D164" s="10">
         <v>1</v>
@@ -32397,13 +32419,13 @@
         <v>347</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D165" s="10">
         <v>1</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -32444,21 +32466,21 @@
         <v>355</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D168" s="10">
         <v>1</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>384</v>
@@ -32470,10 +32492,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>384</v>
@@ -32485,10 +32507,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>384</v>
@@ -32530,10 +32552,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>489</v>
@@ -32550,7 +32572,7 @@
         <v>28</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>384</v>
@@ -32562,10 +32584,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>384</v>
@@ -32577,10 +32599,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>384</v>
@@ -32592,27 +32614,27 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="C178" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D178" s="10">
         <v>1</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>384</v>
@@ -32636,7 +32658,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -32653,7 +32675,7 @@
         <v>0.514444444</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -32703,10 +32725,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>384</v>
@@ -32718,10 +32740,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>481</v>
@@ -32733,10 +32755,10 @@
     </row>
     <row r="187" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>384</v>
@@ -32748,10 +32770,10 @@
     </row>
     <row r="188" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>7</v>
@@ -32765,10 +32787,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>384</v>
@@ -32780,10 +32802,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>384</v>
@@ -32795,27 +32817,27 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D191" s="15">
         <v>1</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>384</v>
@@ -32827,24 +32849,24 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D193" s="15">
         <v>1</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>9</v>
@@ -32858,7 +32880,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>11</v>
@@ -32870,12 +32892,12 @@
         <v>1</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>13</v>
@@ -32889,7 +32911,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>23</v>
@@ -32903,7 +32925,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>25</v>
@@ -32917,7 +32939,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>27</v>
@@ -32931,7 +32953,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>17</v>
@@ -32945,7 +32967,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>19</v>
@@ -32959,7 +32981,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>21</v>
@@ -32973,10 +32995,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>489</v>
@@ -32993,7 +33015,7 @@
         <v>345</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>499</v>
+        <v>1367</v>
       </c>
       <c r="D204" s="10">
         <v>1</v>
@@ -33004,19 +33026,19 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>355</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D205" s="10">
         <v>1</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/WIR_Catchment/WIR Supporting Data.xlsx
+++ b/matlab/WIR_Catchment/WIR Supporting Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SCERM\matlab\WIR_Catchment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F575104B-F857-418D-9F53-8388CF8136F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B986C-16DA-47A2-9885-93760D95A125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_Information" sheetId="1" r:id="rId1"/>
@@ -4147,7 +4147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4220,6 +4220,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4335,8 +4342,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4424,8 +4432,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D88AE43C-F3F4-4EB3-8A74-133AC553AC80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4705,7 +4714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+    <sheetView topLeftCell="A380" workbookViewId="0">
       <selection activeCell="A414" sqref="A414"/>
     </sheetView>
   </sheetViews>
@@ -27710,13 +27719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -29811,6 +29821,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/matlab/WIR_Catchment/WIR Supporting Data.xlsx
+++ b/matlab/WIR_Catchment/WIR Supporting Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SCERM\matlab\WIR_Catchment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B986C-16DA-47A2-9885-93760D95A125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433323D3-743A-4FAB-9EDF-4384F435031A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6225" windowWidth="16440" windowHeight="28590" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_Information" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1439">
   <si>
     <t>SITE_ID</t>
   </si>
@@ -4141,6 +4141,219 @@
   </si>
   <si>
     <t>WQ_DIAG_TOT_TSS</t>
+  </si>
+  <si>
+    <t>Swan River - Guildford Rd Climate</t>
+  </si>
+  <si>
+    <t>s509619</t>
+  </si>
+  <si>
+    <t>Swan-Canning Estuary - Lwrswn - Waylen Buoy</t>
+  </si>
+  <si>
+    <t>s6167160</t>
+  </si>
+  <si>
+    <t>Cond @ 25 deg C (uS/cm)</t>
+  </si>
+  <si>
+    <t>Alkalinity (tot) (CaCO3) (ug/L)</t>
+  </si>
+  <si>
+    <t>Bottom Depth (m)</t>
+  </si>
+  <si>
+    <t>C (sol org) {DOC, DOC as NPOC} (ug/L)</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (in situ) (ug/L)</t>
+  </si>
+  <si>
+    <t>Chlorophyll b (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>Chlorophyll c (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>Chlorophyll sample volume (mL)</t>
+  </si>
+  <si>
+    <t>Cloud cover (%)</t>
+  </si>
+  <si>
+    <t>Flow status (no units)</t>
+  </si>
+  <si>
+    <t>Fluorescence (V) (V)</t>
+  </si>
+  <si>
+    <t>N (org) (ug/L)</t>
+  </si>
+  <si>
+    <t>N (sum sol org) {DON} (ug/L)</t>
+  </si>
+  <si>
+    <t>N (sum sol ox) {NOx-N, TON} (ug/L)</t>
+  </si>
+  <si>
+    <t>N (tot kjel) {TKN} (ug/L)</t>
+  </si>
+  <si>
+    <t>N (tot) {TN, pTN} (ug/L)</t>
+  </si>
+  <si>
+    <t>NH3-N/NH4-N (sol) (ug/L)</t>
+  </si>
+  <si>
+    <t>O2-{DO %sat} (%)</t>
+  </si>
+  <si>
+    <t>O2-{DO conc} (mg/L)</t>
+  </si>
+  <si>
+    <t>P (tot) {TP, pTP} (ug/L)</t>
+  </si>
+  <si>
+    <t>pH (no units)</t>
+  </si>
+  <si>
+    <t>Phaeophytin a (by vol) (mg/L)</t>
+  </si>
+  <si>
+    <t>PO4-P (sol react) {SRP, FRP} (ug/L)</t>
+  </si>
+  <si>
+    <t>Salinity (ppt)</t>
+  </si>
+  <si>
+    <t>Secchi depth (m)</t>
+  </si>
+  <si>
+    <t>SiO2-Si (sol react) (ug/L)</t>
+  </si>
+  <si>
+    <t>Temperature (deg C)</t>
+  </si>
+  <si>
+    <t>Tide status (no units)</t>
+  </si>
+  <si>
+    <t>TSS (mg/L)</t>
+  </si>
+  <si>
+    <t>Turbidity (NTU) (NTU)</t>
+  </si>
+  <si>
+    <t>Wind direction (deg)</t>
+  </si>
+  <si>
+    <t>Wind speed (kn)</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Alkalinity_Total_NEW</t>
+  </si>
+  <si>
+    <t>Bottom_Depth_NEW</t>
+  </si>
+  <si>
+    <t>C_Sol_NEW</t>
+  </si>
+  <si>
+    <t>Chlor_A_NEW</t>
+  </si>
+  <si>
+    <t>Chlor_A_insitu_NEW</t>
+  </si>
+  <si>
+    <t>Chlor_B_NEW</t>
+  </si>
+  <si>
+    <t>Chlor_C_NEW</t>
+  </si>
+  <si>
+    <t>Chlor_Vol_NEW</t>
+  </si>
+  <si>
+    <t>Cloud_Cover_NEW</t>
+  </si>
+  <si>
+    <t>Flow_Status_NEW</t>
+  </si>
+  <si>
+    <t>Fluorescence_NEW</t>
+  </si>
+  <si>
+    <t>ON_NEW</t>
+  </si>
+  <si>
+    <t>DON_NEW</t>
+  </si>
+  <si>
+    <t>NOx_mg_NEW</t>
+  </si>
+  <si>
+    <t>TKN_NEW</t>
+  </si>
+  <si>
+    <t>TN_NEW</t>
+  </si>
+  <si>
+    <t>NH3_NEW</t>
+  </si>
+  <si>
+    <t>DO_Percentage_NEW</t>
+  </si>
+  <si>
+    <t>DO_NEW</t>
+  </si>
+  <si>
+    <t>TP_NEW</t>
+  </si>
+  <si>
+    <t>pH_NEW</t>
+  </si>
+  <si>
+    <t>Parathion_NEW</t>
+  </si>
+  <si>
+    <t>PO4_NEW</t>
+  </si>
+  <si>
+    <t>Salinity_ppt_NEW</t>
+  </si>
+  <si>
+    <t>Secchi_NEW</t>
+  </si>
+  <si>
+    <t>SiO2_Si_NEW</t>
+  </si>
+  <si>
+    <t>Temperature_NEW</t>
+  </si>
+  <si>
+    <t>Tide_Status_NoUnits_NEW</t>
+  </si>
+  <si>
+    <t>TSS_NEW</t>
+  </si>
+  <si>
+    <t>Turbidity_NEW</t>
+  </si>
+  <si>
+    <t>Wind_Dir_NEW</t>
+  </si>
+  <si>
+    <t>Wind_Speed_NEW</t>
   </si>
 </sst>
 </file>
@@ -4346,7 +4559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4431,12 +4644,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D88AE43C-F3F4-4EB3-8A74-133AC553AC80}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4714,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1432"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -16981,13 +17218,57 @@
         <v>6457130</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A439" s="29"/>
-      <c r="B439" s="26"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A440" s="29"/>
-      <c r="B440" s="26"/>
+    <row r="439" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>509619</v>
+      </c>
+      <c r="B439">
+        <v>509619</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F439" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G439">
+        <v>401828.07</v>
+      </c>
+      <c r="H439">
+        <v>6470114.1299999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>6167160</v>
+      </c>
+      <c r="B440">
+        <v>6167160</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E440" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F440" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G440">
+        <v>390828.64</v>
+      </c>
+      <c r="H440">
+        <v>6459103.9400000004</v>
+      </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="29"/>
@@ -25518,15 +25799,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200:B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
   </cols>
@@ -27709,7 +27990,367 @@
         <v>38</v>
       </c>
     </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="32" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="32" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="32" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="32" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="32" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="32" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="32" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="32" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="32" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="32" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="32" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="32" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="32" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -27719,7 +28360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+    <sheetView topLeftCell="A165" workbookViewId="0">
       <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
@@ -29827,10 +30468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204:B204"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207:B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33052,7 +33693,557 @@
         <v>502</v>
       </c>
     </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="10">
+        <v>0</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D207" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="32" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D208" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="32" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" s="10">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="32" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D210" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="32" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D211" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E211" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="32" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D212" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D213" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D214" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D215" s="10">
+        <v>1</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D216" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D217" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D218" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="32" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D219" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D220" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D221" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D222" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D223" s="10">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D224" s="8">
+        <v>1</v>
+      </c>
+      <c r="E224" s="8"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="32" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D225" s="10">
+        <f>1000/32</f>
+        <v>31.25</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="32" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D226" s="10">
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="32" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D227" s="10">
+        <v>1</v>
+      </c>
+      <c r="E227" s="10"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="32" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D228" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="32" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D229" s="10">
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="E229" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="32" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D230" s="8">
+        <v>1</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D231" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="32" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D232" s="10">
+        <f>1/28.1</f>
+        <v>3.5587188612099641E-2</v>
+      </c>
+      <c r="E232" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="32" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D233" s="10">
+        <v>1</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D234" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="32" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D235" s="10">
+        <v>1</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D236" s="10">
+        <v>1</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D237" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D238" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A207:A238">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
